--- a/Proyecto/Modulo 5/M2/BootstrapMetrics.xlsx
+++ b/Proyecto/Modulo 5/M2/BootstrapMetrics.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +417,7 @@
         <v>0.6523403311913978</v>
       </c>
       <c r="E2">
-        <v>0.6963216349962419</v>
+        <v>0.6962223104034727</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.611371725785085</v>
+        <v>0.6115212026161763</v>
       </c>
       <c r="C35">
         <v>0.7209661605920223</v>
@@ -1071,7 +1071,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.6202603573274397</v>
+        <v>0.6205125457193982</v>
       </c>
       <c r="C41">
         <v>0.7282831985118758</v>
@@ -1080,7 +1080,7 @@
         <v>0.655422837186846</v>
       </c>
       <c r="E41">
-        <v>0.6993913456550236</v>
+        <v>0.6994907689996249</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1292,7 +1292,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.6135953526249452</v>
+        <v>0.6136947364452594</v>
       </c>
       <c r="C54">
         <v>0.727526911067676</v>
@@ -1462,7 +1462,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6087111741714206</v>
+        <v>0.6085635944783865</v>
       </c>
       <c r="C64">
         <v>0.7238664363526361</v>
@@ -1581,7 +1581,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.6164162605358222</v>
+        <v>0.6165672723147411</v>
       </c>
       <c r="C71">
         <v>0.7198612178666751</v>
@@ -1590,7 +1590,7 @@
         <v>0.6612922722802634</v>
       </c>
       <c r="E71">
-        <v>0.696571585909093</v>
+        <v>0.6967225976880117</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1598,7 +1598,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.6029909782213113</v>
+        <v>0.6022410787825387</v>
       </c>
       <c r="C72">
         <v>0.7231230965196238</v>
@@ -1607,7 +1607,7 @@
         <v>0.6558342272109104</v>
       </c>
       <c r="E72">
-        <v>0.6896163349742372</v>
+        <v>0.6893663684946463</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1972,7 +1972,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.6090425076528234</v>
+        <v>0.6091415567811911</v>
       </c>
       <c r="C94">
         <v>0.7330900664544742</v>
@@ -2006,7 +2006,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.618382867531359</v>
+        <v>0.6182837398549117</v>
       </c>
       <c r="C96">
         <v>0.7316346410588714</v>
@@ -2482,7 +2482,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.6135131125597695</v>
+        <v>0.6136653195612914</v>
       </c>
       <c r="C124">
         <v>0.7246013742677179</v>
@@ -2491,7 +2491,7 @@
         <v>0.65576129194869</v>
       </c>
       <c r="E124">
-        <v>0.6994575484395112</v>
+        <v>0.6996097554410332</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2550,7 +2550,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.615475843063648</v>
+        <v>0.6156271747827764</v>
       </c>
       <c r="C128">
         <v>0.7274395821953599</v>
@@ -2669,7 +2669,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.6205093207014681</v>
+        <v>0.6203082752651995</v>
       </c>
       <c r="C135">
         <v>0.7264891362912974</v>
@@ -2678,7 +2678,7 @@
         <v>0.6744269725387404</v>
       </c>
       <c r="E135">
-        <v>0.7065988892314595</v>
+        <v>0.7063492463224514</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2856,7 +2856,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.6253204770051355</v>
+        <v>0.625420417041114</v>
       </c>
       <c r="C146">
         <v>0.7381188791267941</v>
@@ -2865,7 +2865,7 @@
         <v>0.6581973892587525</v>
       </c>
       <c r="E146">
-        <v>0.7141546386523022</v>
+        <v>0.7142545786882807</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2944,7 +2944,7 @@
         <v>0.6133116012631468</v>
       </c>
       <c r="C151">
-        <v>0.7259482135622347</v>
+        <v>0.7260996369420045</v>
       </c>
       <c r="D151">
         <v>0.6534075811246132</v>
@@ -2995,7 +2995,7 @@
         <v>0.6186305804835819</v>
       </c>
       <c r="C154">
-        <v>0.7247014947526446</v>
+        <v>0.7246003825180641</v>
       </c>
       <c r="D154">
         <v>0.6560146028118773</v>
@@ -3148,7 +3148,7 @@
         <v>0.6192235571557394</v>
       </c>
       <c r="C163">
-        <v>0.730295106384239</v>
+        <v>0.7303950464202174</v>
       </c>
       <c r="D163">
         <v>0.6577292176026321</v>
@@ -3196,7 +3196,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.6132871836523734</v>
+        <v>0.6131869028661721</v>
       </c>
       <c r="C166">
         <v>0.7270967009292197</v>
@@ -3205,7 +3205,7 @@
         <v>0.6414454773277483</v>
       </c>
       <c r="E166">
-        <v>0.6938775546097914</v>
+        <v>0.69377727382359</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3247,7 +3247,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.6179099946422471</v>
+        <v>0.6176088502937227</v>
       </c>
       <c r="C169">
         <v>0.74107283682867</v>
@@ -3740,7 +3740,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.6114624462777004</v>
+        <v>0.611212858677229</v>
       </c>
       <c r="C198">
         <v>0.7305475642825281</v>
@@ -3749,7 +3749,7 @@
         <v>0.6563044350467627</v>
       </c>
       <c r="E198">
-        <v>0.6911998550831437</v>
+        <v>0.6909009907675431</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3859,7 +3859,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.6152172187301652</v>
+        <v>0.6150657494784233</v>
       </c>
       <c r="C205">
         <v>0.7296098921787456</v>
@@ -3961,7 +3961,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.6163961247965154</v>
+        <v>0.6162436392826391</v>
       </c>
       <c r="C211">
         <v>0.7314865446428152</v>
@@ -4134,7 +4134,7 @@
         <v>0.6251746153505272</v>
       </c>
       <c r="C221">
-        <v>0.7328564903398518</v>
+        <v>0.7327048833052854</v>
       </c>
       <c r="D221">
         <v>0.6627878518002864</v>
@@ -4168,7 +4168,7 @@
         <v>0.6111961752145539</v>
       </c>
       <c r="C223">
-        <v>0.7256551118434517</v>
+        <v>0.7258060324592077</v>
       </c>
       <c r="D223">
         <v>0.6525990423324187</v>
@@ -4250,7 +4250,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.6088825380839827</v>
+        <v>0.608781548384932</v>
       </c>
       <c r="C228">
         <v>0.7301620020451087</v>
@@ -4403,7 +4403,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.6095403555216836</v>
+        <v>0.609390295497674</v>
       </c>
       <c r="C237">
         <v>0.7395855716988466</v>
@@ -4412,7 +4412,7 @@
         <v>0.6552920690949411</v>
       </c>
       <c r="E237">
-        <v>0.7049656378064353</v>
+        <v>0.7048155777824257</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4454,7 +4454,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.6075997551756722</v>
+        <v>0.6073993142055378</v>
       </c>
       <c r="C240">
         <v>0.7208290381696876</v>
@@ -4463,7 +4463,7 @@
         <v>0.644015405320276</v>
       </c>
       <c r="E240">
-        <v>0.6886224694327521</v>
+        <v>0.6887712789565617</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4651,6 +4651,8506 @@
       </c>
       <c r="E251">
         <v>0.6985165057403632</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>0.615204221223373</v>
+      </c>
+      <c r="C252">
+        <v>0.7286637699477255</v>
+      </c>
+      <c r="D252">
+        <v>0.6558287162645184</v>
+      </c>
+      <c r="E252">
+        <v>0.7003054921757286</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>0.6079816427046498</v>
+      </c>
+      <c r="C253">
+        <v>0.7192672009143474</v>
+      </c>
+      <c r="D253">
+        <v>0.6588042387683674</v>
+      </c>
+      <c r="E253">
+        <v>0.6907231223380936</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>0.6166594036917664</v>
+      </c>
+      <c r="C254">
+        <v>0.7333208539882217</v>
+      </c>
+      <c r="D254">
+        <v>0.6692406823724099</v>
+      </c>
+      <c r="E254">
+        <v>0.7048207862426401</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>0.6074146689238001</v>
+      </c>
+      <c r="C255">
+        <v>0.7299633561029411</v>
+      </c>
+      <c r="D255">
+        <v>0.6661392299002509</v>
+      </c>
+      <c r="E255">
+        <v>0.7004190669040228</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>0.6179840008224866</v>
+      </c>
+      <c r="C256">
+        <v>0.7217479350900879</v>
+      </c>
+      <c r="D256">
+        <v>0.6453180709666787</v>
+      </c>
+      <c r="E256">
+        <v>0.6954872401192002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>0.6116512766365214</v>
+      </c>
+      <c r="C257">
+        <v>0.7297529275917409</v>
+      </c>
+      <c r="D257">
+        <v>0.648859593849041</v>
+      </c>
+      <c r="E257">
+        <v>0.7013593473894836</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>0.6136640818406873</v>
+      </c>
+      <c r="C258">
+        <v>0.7408903087228774</v>
+      </c>
+      <c r="D258">
+        <v>0.6618956604048347</v>
+      </c>
+      <c r="E258">
+        <v>0.7096594218727246</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>0.6138618124877667</v>
+      </c>
+      <c r="C259">
+        <v>0.7290595781200597</v>
+      </c>
+      <c r="D259">
+        <v>0.6575923332881642</v>
+      </c>
+      <c r="E259">
+        <v>0.6952688317749973</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>0.6080802943540285</v>
+      </c>
+      <c r="C260">
+        <v>0.7293525215993572</v>
+      </c>
+      <c r="D260">
+        <v>0.6526365029134016</v>
+      </c>
+      <c r="E260">
+        <v>0.6985746935905164</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>0.6142738927738929</v>
+      </c>
+      <c r="C261">
+        <v>0.735195988222304</v>
+      </c>
+      <c r="D261">
+        <v>0.6507705802968961</v>
+      </c>
+      <c r="E261">
+        <v>0.7008254815360078</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>0.6193866570844363</v>
+      </c>
+      <c r="C262">
+        <v>0.7242812233961912</v>
+      </c>
+      <c r="D262">
+        <v>0.6521244052408773</v>
+      </c>
+      <c r="E262">
+        <v>0.7007045393143554</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>0.6158782547131457</v>
+      </c>
+      <c r="C263">
+        <v>0.7250275471076486</v>
+      </c>
+      <c r="D263">
+        <v>0.6537735574408051</v>
+      </c>
+      <c r="E263">
+        <v>0.7026765222455438</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>0.6170685656430089</v>
+      </c>
+      <c r="C264">
+        <v>0.7324827673489089</v>
+      </c>
+      <c r="D264">
+        <v>0.6460427004785704</v>
+      </c>
+      <c r="E264">
+        <v>0.6976068836420788</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>0.6124030754909149</v>
+      </c>
+      <c r="C265">
+        <v>0.7295168811457602</v>
+      </c>
+      <c r="D265">
+        <v>0.6548203948241856</v>
+      </c>
+      <c r="E265">
+        <v>0.7003723017365504</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>0.6090295648386087</v>
+      </c>
+      <c r="C266">
+        <v>0.7279023590463384</v>
+      </c>
+      <c r="D266">
+        <v>0.6551603325685125</v>
+      </c>
+      <c r="E266">
+        <v>0.6940757490278405</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>0.6137637327445898</v>
+      </c>
+      <c r="C267">
+        <v>0.7220880553378745</v>
+      </c>
+      <c r="D267">
+        <v>0.6540544562662005</v>
+      </c>
+      <c r="E267">
+        <v>0.6923935853577672</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>0.613864144941209</v>
+      </c>
+      <c r="C268">
+        <v>0.7272147550948403</v>
+      </c>
+      <c r="D268">
+        <v>0.6600234919694425</v>
+      </c>
+      <c r="E268">
+        <v>0.7020049908150978</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>0.6104494386005963</v>
+      </c>
+      <c r="C269">
+        <v>0.7246893424518636</v>
+      </c>
+      <c r="D269">
+        <v>0.6526588031751772</v>
+      </c>
+      <c r="E269">
+        <v>0.6913150608197459</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>0.6199360386034126</v>
+      </c>
+      <c r="C270">
+        <v>0.734982911812138</v>
+      </c>
+      <c r="D270">
+        <v>0.6381395234361333</v>
+      </c>
+      <c r="E270">
+        <v>0.7006116689804007</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>0.6135057361704723</v>
+      </c>
+      <c r="C271">
+        <v>0.7295044856128685</v>
+      </c>
+      <c r="D271">
+        <v>0.643919211309921</v>
+      </c>
+      <c r="E271">
+        <v>0.7013145152373581</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>0.6204201985639112</v>
+      </c>
+      <c r="C272">
+        <v>0.7300046895583097</v>
+      </c>
+      <c r="D272">
+        <v>0.6566982328141827</v>
+      </c>
+      <c r="E272">
+        <v>0.69960103405939</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>0.6172056109078967</v>
+      </c>
+      <c r="C273">
+        <v>0.7292233904398246</v>
+      </c>
+      <c r="D273">
+        <v>0.6471139437271309</v>
+      </c>
+      <c r="E273">
+        <v>0.7022378464261452</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>0.616737957463771</v>
+      </c>
+      <c r="C274">
+        <v>0.7216240145074881</v>
+      </c>
+      <c r="D274">
+        <v>0.6538089192326482</v>
+      </c>
+      <c r="E274">
+        <v>0.6953062042948677</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>0.6119418221688564</v>
+      </c>
+      <c r="C275">
+        <v>0.7280314123380408</v>
+      </c>
+      <c r="D275">
+        <v>0.6433772889134614</v>
+      </c>
+      <c r="E275">
+        <v>0.6948769368909083</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>0.6159664396342939</v>
+      </c>
+      <c r="C276">
+        <v>0.7338942368427701</v>
+      </c>
+      <c r="D276">
+        <v>0.6510974434494483</v>
+      </c>
+      <c r="E276">
+        <v>0.7030867740107489</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>0.6104624867550975</v>
+      </c>
+      <c r="C277">
+        <v>0.724032257310281</v>
+      </c>
+      <c r="D277">
+        <v>0.6514591245252848</v>
+      </c>
+      <c r="E277">
+        <v>0.6964856479033996</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>0.6175463700338217</v>
+      </c>
+      <c r="C278">
+        <v>0.7297549364188639</v>
+      </c>
+      <c r="D278">
+        <v>0.6669967522586009</v>
+      </c>
+      <c r="E278">
+        <v>0.7039311149325362</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>0.61657956770233</v>
+      </c>
+      <c r="C279">
+        <v>0.7322367114928476</v>
+      </c>
+      <c r="D279">
+        <v>0.6672603976790744</v>
+      </c>
+      <c r="E279">
+        <v>0.7053716893055515</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>0.6155324905239608</v>
+      </c>
+      <c r="C280">
+        <v>0.7326845277746186</v>
+      </c>
+      <c r="D280">
+        <v>0.6532538362990523</v>
+      </c>
+      <c r="E280">
+        <v>0.6995867790974127</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>0.6147617088800509</v>
+      </c>
+      <c r="C281">
+        <v>0.7264081233987092</v>
+      </c>
+      <c r="D281">
+        <v>0.6531429927650669</v>
+      </c>
+      <c r="E281">
+        <v>0.695409591955123</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>0.6192467116171106</v>
+      </c>
+      <c r="C282">
+        <v>0.7309623816366384</v>
+      </c>
+      <c r="D282">
+        <v>0.6504227920857742</v>
+      </c>
+      <c r="E282">
+        <v>0.7057440772263366</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>0.6224386625943119</v>
+      </c>
+      <c r="C283">
+        <v>0.7243561503463565</v>
+      </c>
+      <c r="D283">
+        <v>0.6457161133174678</v>
+      </c>
+      <c r="E283">
+        <v>0.7020731773975881</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>0.6192182530862255</v>
+      </c>
+      <c r="C284">
+        <v>0.7404882401988466</v>
+      </c>
+      <c r="D284">
+        <v>0.6751038992431846</v>
+      </c>
+      <c r="E284">
+        <v>0.7148421086146669</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>0.6169736742000285</v>
+      </c>
+      <c r="C285">
+        <v>0.7255147455789599</v>
+      </c>
+      <c r="D285">
+        <v>0.646312123898855</v>
+      </c>
+      <c r="E285">
+        <v>0.6942504348983823</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>0.6133276529925475</v>
+      </c>
+      <c r="C286">
+        <v>0.7251261959750723</v>
+      </c>
+      <c r="D286">
+        <v>0.6501372913464865</v>
+      </c>
+      <c r="E286">
+        <v>0.6963844036935674</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>0.613894547733119</v>
+      </c>
+      <c r="C287">
+        <v>0.7191780239315948</v>
+      </c>
+      <c r="D287">
+        <v>0.6431420301381301</v>
+      </c>
+      <c r="E287">
+        <v>0.6883771356230033</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>0.6102665720980845</v>
+      </c>
+      <c r="C288">
+        <v>0.7201737164860746</v>
+      </c>
+      <c r="D288">
+        <v>0.6447328536227542</v>
+      </c>
+      <c r="E288">
+        <v>0.6927331780608784</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>0.6175354754868054</v>
+      </c>
+      <c r="C289">
+        <v>0.7243362288636767</v>
+      </c>
+      <c r="D289">
+        <v>0.6613680257992651</v>
+      </c>
+      <c r="E289">
+        <v>0.6988169348101436</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>0.6197431597362062</v>
+      </c>
+      <c r="C290">
+        <v>0.7240414506141765</v>
+      </c>
+      <c r="D290">
+        <v>0.6597810423378978</v>
+      </c>
+      <c r="E290">
+        <v>0.7072129543395087</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>0.61344912808178</v>
+      </c>
+      <c r="C291">
+        <v>0.7348170775706553</v>
+      </c>
+      <c r="D291">
+        <v>0.6707992784125076</v>
+      </c>
+      <c r="E291">
+        <v>0.7066019242333134</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>0.6136541433790516</v>
+      </c>
+      <c r="C292">
+        <v>0.7264060570020154</v>
+      </c>
+      <c r="D292">
+        <v>0.6613519878799763</v>
+      </c>
+      <c r="E292">
+        <v>0.7006044198676777</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>0.6154126928619555</v>
+      </c>
+      <c r="C293">
+        <v>0.7367410402854289</v>
+      </c>
+      <c r="D293">
+        <v>0.6494142429660008</v>
+      </c>
+      <c r="E293">
+        <v>0.6982177675761365</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>0.6076701547723113</v>
+      </c>
+      <c r="C294">
+        <v>0.7196160443429791</v>
+      </c>
+      <c r="D294">
+        <v>0.6531596282182938</v>
+      </c>
+      <c r="E294">
+        <v>0.6889385253205917</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>0.6186401480111008</v>
+      </c>
+      <c r="C295">
+        <v>0.729307879909175</v>
+      </c>
+      <c r="D295">
+        <v>0.6505739635018082</v>
+      </c>
+      <c r="E295">
+        <v>0.6969423653743727</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>0.6180997947934725</v>
+      </c>
+      <c r="C296">
+        <v>0.7316219217512887</v>
+      </c>
+      <c r="D296">
+        <v>0.6477952965360994</v>
+      </c>
+      <c r="E296">
+        <v>0.6979194338181804</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>0.6163148928491822</v>
+      </c>
+      <c r="C297">
+        <v>0.7265579542680367</v>
+      </c>
+      <c r="D297">
+        <v>0.6491534113223132</v>
+      </c>
+      <c r="E297">
+        <v>0.6969932975858379</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>0.6065714377588014</v>
+      </c>
+      <c r="C298">
+        <v>0.7283110269061939</v>
+      </c>
+      <c r="D298">
+        <v>0.6527544498235656</v>
+      </c>
+      <c r="E298">
+        <v>0.6950008989542557</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>0.6180256433177395</v>
+      </c>
+      <c r="C299">
+        <v>0.7286501575025318</v>
+      </c>
+      <c r="D299">
+        <v>0.6516887516006842</v>
+      </c>
+      <c r="E299">
+        <v>0.6976157394378761</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>0.6168086020757328</v>
+      </c>
+      <c r="C300">
+        <v>0.7254589865847672</v>
+      </c>
+      <c r="D300">
+        <v>0.6569054336852889</v>
+      </c>
+      <c r="E300">
+        <v>0.6983192328342541</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>0.6123358375142931</v>
+      </c>
+      <c r="C301">
+        <v>0.722669266471992</v>
+      </c>
+      <c r="D301">
+        <v>0.6554317440105889</v>
+      </c>
+      <c r="E301">
+        <v>0.6908064531361091</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>0.6161018437225636</v>
+      </c>
+      <c r="C302">
+        <v>0.7373953760608721</v>
+      </c>
+      <c r="D302">
+        <v>0.6669912879043696</v>
+      </c>
+      <c r="E302">
+        <v>0.7058499358411562</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>0.6135322379422929</v>
+      </c>
+      <c r="C303">
+        <v>0.738153496314779</v>
+      </c>
+      <c r="D303">
+        <v>0.6605594634530477</v>
+      </c>
+      <c r="E303">
+        <v>0.7074188410798183</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>0.6121301103320881</v>
+      </c>
+      <c r="C304">
+        <v>0.7320026949334711</v>
+      </c>
+      <c r="D304">
+        <v>0.646823239181645</v>
+      </c>
+      <c r="E304">
+        <v>0.6972957074545327</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>0.6230263623501552</v>
+      </c>
+      <c r="C305">
+        <v>0.7292352106027886</v>
+      </c>
+      <c r="D305">
+        <v>0.6526756520738419</v>
+      </c>
+      <c r="E305">
+        <v>0.7019818072275069</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>0.6114221308252652</v>
+      </c>
+      <c r="C306">
+        <v>0.7253295532801631</v>
+      </c>
+      <c r="D306">
+        <v>0.6614747330570774</v>
+      </c>
+      <c r="E306">
+        <v>0.7003575522030981</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>0.6138755427432558</v>
+      </c>
+      <c r="C307">
+        <v>0.7253252010819276</v>
+      </c>
+      <c r="D307">
+        <v>0.6449253505587587</v>
+      </c>
+      <c r="E307">
+        <v>0.6970963235817496</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>0.6149108596934159</v>
+      </c>
+      <c r="C308">
+        <v>0.7374001533781978</v>
+      </c>
+      <c r="D308">
+        <v>0.6529523866968827</v>
+      </c>
+      <c r="E308">
+        <v>0.701097415261418</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>0.6163286702812809</v>
+      </c>
+      <c r="C309">
+        <v>0.7395494712877813</v>
+      </c>
+      <c r="D309">
+        <v>0.6577602372465028</v>
+      </c>
+      <c r="E309">
+        <v>0.7006763921756582</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>0.6189824560531613</v>
+      </c>
+      <c r="C310">
+        <v>0.7249667280841273</v>
+      </c>
+      <c r="D310">
+        <v>0.6542374441738192</v>
+      </c>
+      <c r="E310">
+        <v>0.6984550158060918</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>0.6120354584905454</v>
+      </c>
+      <c r="C311">
+        <v>0.7241761664948416</v>
+      </c>
+      <c r="D311">
+        <v>0.6567109632908767</v>
+      </c>
+      <c r="E311">
+        <v>0.6981452775284871</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>0.6209533289514571</v>
+      </c>
+      <c r="C312">
+        <v>0.7328716538541729</v>
+      </c>
+      <c r="D312">
+        <v>0.6660192905796853</v>
+      </c>
+      <c r="E312">
+        <v>0.7024779325212971</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>0.6170091896407686</v>
+      </c>
+      <c r="C313">
+        <v>0.7299269005847954</v>
+      </c>
+      <c r="D313">
+        <v>0.6617314118629909</v>
+      </c>
+      <c r="E313">
+        <v>0.7041144527986634</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>0.6181171330087324</v>
+      </c>
+      <c r="C314">
+        <v>0.7254334483270245</v>
+      </c>
+      <c r="D314">
+        <v>0.6602321090196579</v>
+      </c>
+      <c r="E314">
+        <v>0.6981793700887863</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>0.6124271726391753</v>
+      </c>
+      <c r="C315">
+        <v>0.7323884854009233</v>
+      </c>
+      <c r="D315">
+        <v>0.6551232236844868</v>
+      </c>
+      <c r="E315">
+        <v>0.6976663740270432</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>0.6117474913463126</v>
+      </c>
+      <c r="C316">
+        <v>0.7294534853238153</v>
+      </c>
+      <c r="D316">
+        <v>0.6410119968443002</v>
+      </c>
+      <c r="E316">
+        <v>0.6942800679372597</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>0.6151293952861813</v>
+      </c>
+      <c r="C317">
+        <v>0.7259490317057592</v>
+      </c>
+      <c r="D317">
+        <v>0.6441445923329363</v>
+      </c>
+      <c r="E317">
+        <v>0.6947665105791939</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>0.6225589629682704</v>
+      </c>
+      <c r="C318">
+        <v>0.7333773988225319</v>
+      </c>
+      <c r="D318">
+        <v>0.6606625944900226</v>
+      </c>
+      <c r="E318">
+        <v>0.7105171425500663</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>0.62060965392795</v>
+      </c>
+      <c r="C319">
+        <v>0.7348434787264611</v>
+      </c>
+      <c r="D319">
+        <v>0.6581136333131598</v>
+      </c>
+      <c r="E319">
+        <v>0.7094676600148951</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>0.6158145856654663</v>
+      </c>
+      <c r="C320">
+        <v>0.7311015446230757</v>
+      </c>
+      <c r="D320">
+        <v>0.6553540550138383</v>
+      </c>
+      <c r="E320">
+        <v>0.6987165379410998</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>0.6165434891902435</v>
+      </c>
+      <c r="C321">
+        <v>0.7239119508042988</v>
+      </c>
+      <c r="D321">
+        <v>0.6550104385398478</v>
+      </c>
+      <c r="E321">
+        <v>0.6981664303974352</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>0.615126812502956</v>
+      </c>
+      <c r="C322">
+        <v>0.7234829700802945</v>
+      </c>
+      <c r="D322">
+        <v>0.6459705953031025</v>
+      </c>
+      <c r="E322">
+        <v>0.6969628348212686</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>0.6230102706800146</v>
+      </c>
+      <c r="C323">
+        <v>0.7370269282493822</v>
+      </c>
+      <c r="D323">
+        <v>0.6631236588800615</v>
+      </c>
+      <c r="E323">
+        <v>0.7046175561288723</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>0.614254083931696</v>
+      </c>
+      <c r="C324">
+        <v>0.728836663748754</v>
+      </c>
+      <c r="D324">
+        <v>0.6528550147464437</v>
+      </c>
+      <c r="E324">
+        <v>0.6937135324170218</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>0.6106050881593363</v>
+      </c>
+      <c r="C325">
+        <v>0.7188178883502163</v>
+      </c>
+      <c r="D325">
+        <v>0.6467948255364311</v>
+      </c>
+      <c r="E325">
+        <v>0.6872433135479908</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>0.6177005604954395</v>
+      </c>
+      <c r="C326">
+        <v>0.7247853830750518</v>
+      </c>
+      <c r="D326">
+        <v>0.65528911475146</v>
+      </c>
+      <c r="E326">
+        <v>0.6994828279081637</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>0.6133942638249452</v>
+      </c>
+      <c r="C327">
+        <v>0.7267287770534151</v>
+      </c>
+      <c r="D327">
+        <v>0.6557081697234982</v>
+      </c>
+      <c r="E327">
+        <v>0.6985824178348315</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>0.6157300220670694</v>
+      </c>
+      <c r="C328">
+        <v>0.7234278879015721</v>
+      </c>
+      <c r="D328">
+        <v>0.6618445923304082</v>
+      </c>
+      <c r="E328">
+        <v>0.7017496458606634</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>0.6123897302684393</v>
+      </c>
+      <c r="C329">
+        <v>0.7234294290323194</v>
+      </c>
+      <c r="D329">
+        <v>0.6554226939704169</v>
+      </c>
+      <c r="E329">
+        <v>0.6918972447172121</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>0.6207836151653564</v>
+      </c>
+      <c r="C330">
+        <v>0.729615399964446</v>
+      </c>
+      <c r="D330">
+        <v>0.6565523073220697</v>
+      </c>
+      <c r="E330">
+        <v>0.702780801077746</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>0.6172163450580002</v>
+      </c>
+      <c r="C331">
+        <v>0.7339839180438106</v>
+      </c>
+      <c r="D331">
+        <v>0.6546612471579004</v>
+      </c>
+      <c r="E331">
+        <v>0.7066023700400776</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>0.6155057064147973</v>
+      </c>
+      <c r="C332">
+        <v>0.7294590930954568</v>
+      </c>
+      <c r="D332">
+        <v>0.6607416152870699</v>
+      </c>
+      <c r="E332">
+        <v>0.7049390003935458</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>0.6187760962672257</v>
+      </c>
+      <c r="C333">
+        <v>0.7259141533609303</v>
+      </c>
+      <c r="D333">
+        <v>0.650563701772306</v>
+      </c>
+      <c r="E333">
+        <v>0.6964724118774976</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>0.6189240243482658</v>
+      </c>
+      <c r="C334">
+        <v>0.7314278378445549</v>
+      </c>
+      <c r="D334">
+        <v>0.6558702149401168</v>
+      </c>
+      <c r="E334">
+        <v>0.7017289410660692</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>0.6175576115351771</v>
+      </c>
+      <c r="C335">
+        <v>0.732981520853576</v>
+      </c>
+      <c r="D335">
+        <v>0.6668810395474718</v>
+      </c>
+      <c r="E335">
+        <v>0.7055301901951233</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>0.6089375879842869</v>
+      </c>
+      <c r="C336">
+        <v>0.7354650285895653</v>
+      </c>
+      <c r="D336">
+        <v>0.6538363861578265</v>
+      </c>
+      <c r="E336">
+        <v>0.6977876635343754</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>0.6174207037410794</v>
+      </c>
+      <c r="C337">
+        <v>0.7360913546079149</v>
+      </c>
+      <c r="D337">
+        <v>0.6622825357883096</v>
+      </c>
+      <c r="E337">
+        <v>0.7112035990742475</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>0.6084129154747343</v>
+      </c>
+      <c r="C338">
+        <v>0.7313751774400337</v>
+      </c>
+      <c r="D338">
+        <v>0.6524233203816016</v>
+      </c>
+      <c r="E338">
+        <v>0.7005601264020953</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>0.6097452459298656</v>
+      </c>
+      <c r="C339">
+        <v>0.7194316638288918</v>
+      </c>
+      <c r="D339">
+        <v>0.6650829331751832</v>
+      </c>
+      <c r="E339">
+        <v>0.6944356096114481</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>0.6178401633677583</v>
+      </c>
+      <c r="C340">
+        <v>0.7338192176925012</v>
+      </c>
+      <c r="D340">
+        <v>0.6483335283252323</v>
+      </c>
+      <c r="E340">
+        <v>0.7028098332641999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>0.6163936079718071</v>
+      </c>
+      <c r="C341">
+        <v>0.7321316077287641</v>
+      </c>
+      <c r="D341">
+        <v>0.6633671770567505</v>
+      </c>
+      <c r="E341">
+        <v>0.7006183618908738</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>0.612744087157883</v>
+      </c>
+      <c r="C342">
+        <v>0.7395983437663394</v>
+      </c>
+      <c r="D342">
+        <v>0.6484665015458633</v>
+      </c>
+      <c r="E342">
+        <v>0.7000820046834968</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>0.612867334864872</v>
+      </c>
+      <c r="C343">
+        <v>0.7275960953719043</v>
+      </c>
+      <c r="D343">
+        <v>0.6549842254413296</v>
+      </c>
+      <c r="E343">
+        <v>0.6948327925705192</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>0.6196683066673249</v>
+      </c>
+      <c r="C344">
+        <v>0.7349399671999868</v>
+      </c>
+      <c r="D344">
+        <v>0.6500926956893762</v>
+      </c>
+      <c r="E344">
+        <v>0.6961182994454713</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>0.6131067493776048</v>
+      </c>
+      <c r="C345">
+        <v>0.7252568669793544</v>
+      </c>
+      <c r="D345">
+        <v>0.6656609768510241</v>
+      </c>
+      <c r="E345">
+        <v>0.6967642325626178</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>0.6083705616827214</v>
+      </c>
+      <c r="C346">
+        <v>0.7246870491879567</v>
+      </c>
+      <c r="D346">
+        <v>0.6629205640094932</v>
+      </c>
+      <c r="E346">
+        <v>0.6953580901856764</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>0.6089009058442396</v>
+      </c>
+      <c r="C347">
+        <v>0.7238554104061221</v>
+      </c>
+      <c r="D347">
+        <v>0.6629414588951539</v>
+      </c>
+      <c r="E347">
+        <v>0.694855856414924</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>0.6162283123126582</v>
+      </c>
+      <c r="C348">
+        <v>0.7359281243649491</v>
+      </c>
+      <c r="D348">
+        <v>0.6622866760707329</v>
+      </c>
+      <c r="E348">
+        <v>0.7035023465829606</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>0.6129481304211798</v>
+      </c>
+      <c r="C349">
+        <v>0.7312472648581305</v>
+      </c>
+      <c r="D349">
+        <v>0.6700903902960347</v>
+      </c>
+      <c r="E349">
+        <v>0.7011237488789379</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>0.6112849149834112</v>
+      </c>
+      <c r="C350">
+        <v>0.7277018220049726</v>
+      </c>
+      <c r="D350">
+        <v>0.6497057047827357</v>
+      </c>
+      <c r="E350">
+        <v>0.6980193218302319</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>0.6144242549209845</v>
+      </c>
+      <c r="C351">
+        <v>0.7217074574229584</v>
+      </c>
+      <c r="D351">
+        <v>0.6417559572861642</v>
+      </c>
+      <c r="E351">
+        <v>0.6911453669335472</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>0.6176168936220774</v>
+      </c>
+      <c r="C352">
+        <v>0.7262001689477662</v>
+      </c>
+      <c r="D352">
+        <v>0.6531865439261786</v>
+      </c>
+      <c r="E352">
+        <v>0.7004014193151747</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>0.6136555559522959</v>
+      </c>
+      <c r="C353">
+        <v>0.7230236973029588</v>
+      </c>
+      <c r="D353">
+        <v>0.6503135042490895</v>
+      </c>
+      <c r="E353">
+        <v>0.6937094432145492</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>0.6098485889465903</v>
+      </c>
+      <c r="C354">
+        <v>0.7277323168189227</v>
+      </c>
+      <c r="D354">
+        <v>0.6579576683977104</v>
+      </c>
+      <c r="E354">
+        <v>0.7016471371441568</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>0.6147049565078948</v>
+      </c>
+      <c r="C355">
+        <v>0.7272158151568883</v>
+      </c>
+      <c r="D355">
+        <v>0.6480845494515739</v>
+      </c>
+      <c r="E355">
+        <v>0.7002276154437078</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>0.6197713802064451</v>
+      </c>
+      <c r="C356">
+        <v>0.7322947439580467</v>
+      </c>
+      <c r="D356">
+        <v>0.6542894591872659</v>
+      </c>
+      <c r="E356">
+        <v>0.7033192570413309</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>0.6194198516202216</v>
+      </c>
+      <c r="C357">
+        <v>0.724940387139933</v>
+      </c>
+      <c r="D357">
+        <v>0.6554185868637674</v>
+      </c>
+      <c r="E357">
+        <v>0.6982793186553036</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>0.6135553821663553</v>
+      </c>
+      <c r="C358">
+        <v>0.7220784906303315</v>
+      </c>
+      <c r="D358">
+        <v>0.6465846212729509</v>
+      </c>
+      <c r="E358">
+        <v>0.6946690021728165</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>0.6158164790518944</v>
+      </c>
+      <c r="C359">
+        <v>0.7305536512345888</v>
+      </c>
+      <c r="D359">
+        <v>0.6479992258206652</v>
+      </c>
+      <c r="E359">
+        <v>0.700747003356165</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>0.6155627525968637</v>
+      </c>
+      <c r="C360">
+        <v>0.7282225609625432</v>
+      </c>
+      <c r="D360">
+        <v>0.6521432547738337</v>
+      </c>
+      <c r="E360">
+        <v>0.7013486595074042</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>0.624024833952701</v>
+      </c>
+      <c r="C361">
+        <v>0.7270895249772866</v>
+      </c>
+      <c r="D361">
+        <v>0.6542418025840331</v>
+      </c>
+      <c r="E361">
+        <v>0.6967125738699664</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>0.6140968769698735</v>
+      </c>
+      <c r="C362">
+        <v>0.7300352935199823</v>
+      </c>
+      <c r="D362">
+        <v>0.6536634349092924</v>
+      </c>
+      <c r="E362">
+        <v>0.700083176194354</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>0.6118533821091363</v>
+      </c>
+      <c r="C363">
+        <v>0.7199176554079265</v>
+      </c>
+      <c r="D363">
+        <v>0.6456551965595583</v>
+      </c>
+      <c r="E363">
+        <v>0.688590813444362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>0.6184433646158062</v>
+      </c>
+      <c r="C364">
+        <v>0.7251941928009615</v>
+      </c>
+      <c r="D364">
+        <v>0.657726879322367</v>
+      </c>
+      <c r="E364">
+        <v>0.6981656478836172</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>0.6148222842290604</v>
+      </c>
+      <c r="C365">
+        <v>0.725972112904351</v>
+      </c>
+      <c r="D365">
+        <v>0.6530493155156045</v>
+      </c>
+      <c r="E365">
+        <v>0.7019177487727286</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>0.6151120325603715</v>
+      </c>
+      <c r="C366">
+        <v>0.728321590841345</v>
+      </c>
+      <c r="D366">
+        <v>0.6513660603377421</v>
+      </c>
+      <c r="E366">
+        <v>0.6983721891073849</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>0.6086357089712295</v>
+      </c>
+      <c r="C367">
+        <v>0.7243282065624319</v>
+      </c>
+      <c r="D367">
+        <v>0.6566875773308105</v>
+      </c>
+      <c r="E367">
+        <v>0.6916673599519479</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>0.6134269381915682</v>
+      </c>
+      <c r="C368">
+        <v>0.7320074545425631</v>
+      </c>
+      <c r="D368">
+        <v>0.6652554825124005</v>
+      </c>
+      <c r="E368">
+        <v>0.7013215280071941</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>0.6091237877967048</v>
+      </c>
+      <c r="C369">
+        <v>0.725881275905165</v>
+      </c>
+      <c r="D369">
+        <v>0.6468309457341737</v>
+      </c>
+      <c r="E369">
+        <v>0.6953342650735364</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>0.6236898921182619</v>
+      </c>
+      <c r="C370">
+        <v>0.7326414681625067</v>
+      </c>
+      <c r="D370">
+        <v>0.6645937870375536</v>
+      </c>
+      <c r="E370">
+        <v>0.7105705116724262</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>0.6130713099869176</v>
+      </c>
+      <c r="C371">
+        <v>0.7262199677771575</v>
+      </c>
+      <c r="D371">
+        <v>0.6590837572738186</v>
+      </c>
+      <c r="E371">
+        <v>0.7007691749231089</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>0.6196653776477146</v>
+      </c>
+      <c r="C372">
+        <v>0.7264826621144556</v>
+      </c>
+      <c r="D372">
+        <v>0.660954628855444</v>
+      </c>
+      <c r="E372">
+        <v>0.7032687081939799</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>0.6087486007204947</v>
+      </c>
+      <c r="C373">
+        <v>0.7378133885379613</v>
+      </c>
+      <c r="D373">
+        <v>0.6616502642192015</v>
+      </c>
+      <c r="E373">
+        <v>0.7012383518049891</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>0.6075282301129206</v>
+      </c>
+      <c r="C374">
+        <v>0.7212772851091404</v>
+      </c>
+      <c r="D374">
+        <v>0.644126276505106</v>
+      </c>
+      <c r="E374">
+        <v>0.6820761283045131</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>0.625431857442277</v>
+      </c>
+      <c r="C375">
+        <v>0.7311156584217777</v>
+      </c>
+      <c r="D375">
+        <v>0.6540204687391524</v>
+      </c>
+      <c r="E375">
+        <v>0.7085045850922456</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>0.6056127738701204</v>
+      </c>
+      <c r="C376">
+        <v>0.7250277538560719</v>
+      </c>
+      <c r="D376">
+        <v>0.6525102956883196</v>
+      </c>
+      <c r="E376">
+        <v>0.6976712620397009</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>0.61658994232042</v>
+      </c>
+      <c r="C377">
+        <v>0.7336257533782742</v>
+      </c>
+      <c r="D377">
+        <v>0.6668332175900158</v>
+      </c>
+      <c r="E377">
+        <v>0.706746922642548</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>0.6190114095584687</v>
+      </c>
+      <c r="C378">
+        <v>0.7291078417798412</v>
+      </c>
+      <c r="D378">
+        <v>0.6548212931232863</v>
+      </c>
+      <c r="E378">
+        <v>0.7024322278513878</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>0.6207798350400732</v>
+      </c>
+      <c r="C379">
+        <v>0.7283209927512169</v>
+      </c>
+      <c r="D379">
+        <v>0.6571202615904242</v>
+      </c>
+      <c r="E379">
+        <v>0.6974209230456258</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>0.6119255917509778</v>
+      </c>
+      <c r="C380">
+        <v>0.7234501254888089</v>
+      </c>
+      <c r="D380">
+        <v>0.6477222346823281</v>
+      </c>
+      <c r="E380">
+        <v>0.6952884322220553</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>0.6090755941011688</v>
+      </c>
+      <c r="C381">
+        <v>0.7297340525806926</v>
+      </c>
+      <c r="D381">
+        <v>0.6489676763739664</v>
+      </c>
+      <c r="E381">
+        <v>0.6969558236877089</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>0.6180604239722985</v>
+      </c>
+      <c r="C382">
+        <v>0.7288294981133896</v>
+      </c>
+      <c r="D382">
+        <v>0.6432770687679223</v>
+      </c>
+      <c r="E382">
+        <v>0.6989943770312799</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>0.6153533197833199</v>
+      </c>
+      <c r="C383">
+        <v>0.7273440063417619</v>
+      </c>
+      <c r="D383">
+        <v>0.6561767900693467</v>
+      </c>
+      <c r="E383">
+        <v>0.6985061044143992</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>0.6150420918921448</v>
+      </c>
+      <c r="C384">
+        <v>0.7221827108351222</v>
+      </c>
+      <c r="D384">
+        <v>0.6607670402550083</v>
+      </c>
+      <c r="E384">
+        <v>0.696875143172729</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>0.6108161120018923</v>
+      </c>
+      <c r="C385">
+        <v>0.7338098941990148</v>
+      </c>
+      <c r="D385">
+        <v>0.6614134783607015</v>
+      </c>
+      <c r="E385">
+        <v>0.6999854804888523</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>0.617330399512208</v>
+      </c>
+      <c r="C386">
+        <v>0.726443802302873</v>
+      </c>
+      <c r="D386">
+        <v>0.6536345802073117</v>
+      </c>
+      <c r="E386">
+        <v>0.6966350308846532</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>0.6217676724311335</v>
+      </c>
+      <c r="C387">
+        <v>0.7323703805556873</v>
+      </c>
+      <c r="D387">
+        <v>0.6613876391304845</v>
+      </c>
+      <c r="E387">
+        <v>0.7038194871844139</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>0.6131020436945944</v>
+      </c>
+      <c r="C388">
+        <v>0.7255864312256549</v>
+      </c>
+      <c r="D388">
+        <v>0.64956341859584</v>
+      </c>
+      <c r="E388">
+        <v>0.6955904710453691</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>0.6112327792752321</v>
+      </c>
+      <c r="C389">
+        <v>0.7290337675950884</v>
+      </c>
+      <c r="D389">
+        <v>0.6528339323150644</v>
+      </c>
+      <c r="E389">
+        <v>0.6960223869421982</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>0.617152527178878</v>
+      </c>
+      <c r="C390">
+        <v>0.7280734686186736</v>
+      </c>
+      <c r="D390">
+        <v>0.6615644413484378</v>
+      </c>
+      <c r="E390">
+        <v>0.7027697998507825</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>0.6100693180389669</v>
+      </c>
+      <c r="C391">
+        <v>0.7362248609025042</v>
+      </c>
+      <c r="D391">
+        <v>0.6550422675695439</v>
+      </c>
+      <c r="E391">
+        <v>0.6977936900323333</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>0.6202175014138134</v>
+      </c>
+      <c r="C392">
+        <v>0.7265256386551939</v>
+      </c>
+      <c r="D392">
+        <v>0.6544497932128526</v>
+      </c>
+      <c r="E392">
+        <v>0.6956733696578481</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>0.6171312770569759</v>
+      </c>
+      <c r="C393">
+        <v>0.735568805535643</v>
+      </c>
+      <c r="D393">
+        <v>0.6619246771102199</v>
+      </c>
+      <c r="E393">
+        <v>0.7056429738509328</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>0.6177572394771161</v>
+      </c>
+      <c r="C394">
+        <v>0.7283052271715673</v>
+      </c>
+      <c r="D394">
+        <v>0.6616757884404172</v>
+      </c>
+      <c r="E394">
+        <v>0.7033806015968811</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>0.6158625161933401</v>
+      </c>
+      <c r="C395">
+        <v>0.7327648971572778</v>
+      </c>
+      <c r="D395">
+        <v>0.6562893010139841</v>
+      </c>
+      <c r="E395">
+        <v>0.7006048210197986</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>0.6173589381979172</v>
+      </c>
+      <c r="C396">
+        <v>0.724341248350595</v>
+      </c>
+      <c r="D396">
+        <v>0.6529252877108419</v>
+      </c>
+      <c r="E396">
+        <v>0.7005731527549408</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>0.612080908294363</v>
+      </c>
+      <c r="C397">
+        <v>0.7229016004512643</v>
+      </c>
+      <c r="D397">
+        <v>0.6504524555362368</v>
+      </c>
+      <c r="E397">
+        <v>0.6985837236328201</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>0.6150574954324054</v>
+      </c>
+      <c r="C398">
+        <v>0.7317944639608197</v>
+      </c>
+      <c r="D398">
+        <v>0.6570446804209434</v>
+      </c>
+      <c r="E398">
+        <v>0.7002928409866768</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>0.6127678362575897</v>
+      </c>
+      <c r="C399">
+        <v>0.7321716651447044</v>
+      </c>
+      <c r="D399">
+        <v>0.6536942903215159</v>
+      </c>
+      <c r="E399">
+        <v>0.7007520139889777</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>0.612830480081775</v>
+      </c>
+      <c r="C400">
+        <v>0.7268899038243558</v>
+      </c>
+      <c r="D400">
+        <v>0.6541586172451176</v>
+      </c>
+      <c r="E400">
+        <v>0.6953552328776719</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>0.6150401498647639</v>
+      </c>
+      <c r="C401">
+        <v>0.7272921701201199</v>
+      </c>
+      <c r="D401">
+        <v>0.64527233694217</v>
+      </c>
+      <c r="E401">
+        <v>0.6950689414446208</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>0.6227302636656941</v>
+      </c>
+      <c r="C402">
+        <v>0.7295030869378966</v>
+      </c>
+      <c r="D402">
+        <v>0.6670159913899566</v>
+      </c>
+      <c r="E402">
+        <v>0.7097882198513407</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>0.6124062426192218</v>
+      </c>
+      <c r="C403">
+        <v>0.7207127401419354</v>
+      </c>
+      <c r="D403">
+        <v>0.6552083296875734</v>
+      </c>
+      <c r="E403">
+        <v>0.6918743160805713</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>0.6178238055528101</v>
+      </c>
+      <c r="C404">
+        <v>0.7173228198626125</v>
+      </c>
+      <c r="D404">
+        <v>0.662796911107432</v>
+      </c>
+      <c r="E404">
+        <v>0.6934084049528997</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>0.6105716372128469</v>
+      </c>
+      <c r="C405">
+        <v>0.7328840614109036</v>
+      </c>
+      <c r="D405">
+        <v>0.6582369904086007</v>
+      </c>
+      <c r="E405">
+        <v>0.6983117366947034</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>0.6137488972956248</v>
+      </c>
+      <c r="C406">
+        <v>0.7334136620194582</v>
+      </c>
+      <c r="D406">
+        <v>0.6582423129785593</v>
+      </c>
+      <c r="E406">
+        <v>0.7016002038363566</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>0.6132179846558357</v>
+      </c>
+      <c r="C407">
+        <v>0.7364247915542862</v>
+      </c>
+      <c r="D407">
+        <v>0.6599847568437796</v>
+      </c>
+      <c r="E407">
+        <v>0.6999161668196117</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>0.612003601739008</v>
+      </c>
+      <c r="C408">
+        <v>0.7186521388874541</v>
+      </c>
+      <c r="D408">
+        <v>0.647610193005969</v>
+      </c>
+      <c r="E408">
+        <v>0.6891163385260115</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>0.615084420130973</v>
+      </c>
+      <c r="C409">
+        <v>0.7302764096066208</v>
+      </c>
+      <c r="D409">
+        <v>0.6582646084742354</v>
+      </c>
+      <c r="E409">
+        <v>0.696953292130721</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>0.6082238913100095</v>
+      </c>
+      <c r="C410">
+        <v>0.7263183703154428</v>
+      </c>
+      <c r="D410">
+        <v>0.6600166037931818</v>
+      </c>
+      <c r="E410">
+        <v>0.6944517352944221</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>0.6074502125392774</v>
+      </c>
+      <c r="C411">
+        <v>0.7265967740580904</v>
+      </c>
+      <c r="D411">
+        <v>0.6621855852418678</v>
+      </c>
+      <c r="E411">
+        <v>0.700166408116205</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>0.6095363373721724</v>
+      </c>
+      <c r="C412">
+        <v>0.7265464758814559</v>
+      </c>
+      <c r="D412">
+        <v>0.6634046585500128</v>
+      </c>
+      <c r="E412">
+        <v>0.6992442401477174</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>0.6084825970836443</v>
+      </c>
+      <c r="C413">
+        <v>0.7194452258602327</v>
+      </c>
+      <c r="D413">
+        <v>0.6523643574870019</v>
+      </c>
+      <c r="E413">
+        <v>0.6885257632385369</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>0.6168412053337173</v>
+      </c>
+      <c r="C414">
+        <v>0.7273291295317594</v>
+      </c>
+      <c r="D414">
+        <v>0.6508866402720295</v>
+      </c>
+      <c r="E414">
+        <v>0.7050417701252575</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>0.6165018044610979</v>
+      </c>
+      <c r="C415">
+        <v>0.7298729819969273</v>
+      </c>
+      <c r="D415">
+        <v>0.657999323398993</v>
+      </c>
+      <c r="E415">
+        <v>0.7018245883733014</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>0.6117695903581246</v>
+      </c>
+      <c r="C416">
+        <v>0.7252523450488582</v>
+      </c>
+      <c r="D416">
+        <v>0.647104376823</v>
+      </c>
+      <c r="E416">
+        <v>0.6955154698920906</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>0.6167626613704071</v>
+      </c>
+      <c r="C417">
+        <v>0.7310228401191659</v>
+      </c>
+      <c r="D417">
+        <v>0.6563001844233224</v>
+      </c>
+      <c r="E417">
+        <v>0.6944701376081714</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>0.6183545829420621</v>
+      </c>
+      <c r="C418">
+        <v>0.7283583099820765</v>
+      </c>
+      <c r="D418">
+        <v>0.6664496610469832</v>
+      </c>
+      <c r="E418">
+        <v>0.7037772779454342</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>0.613713093570987</v>
+      </c>
+      <c r="C419">
+        <v>0.7308611632449858</v>
+      </c>
+      <c r="D419">
+        <v>0.6528299773208047</v>
+      </c>
+      <c r="E419">
+        <v>0.6979722990608386</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>0.6084893978190832</v>
+      </c>
+      <c r="C420">
+        <v>0.7269278069551668</v>
+      </c>
+      <c r="D420">
+        <v>0.6383813405017235</v>
+      </c>
+      <c r="E420">
+        <v>0.6915753345301909</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>0.6175468422203614</v>
+      </c>
+      <c r="C421">
+        <v>0.7306247132299633</v>
+      </c>
+      <c r="D421">
+        <v>0.6462607959952616</v>
+      </c>
+      <c r="E421">
+        <v>0.6946330693742981</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>0.6217092760722761</v>
+      </c>
+      <c r="C422">
+        <v>0.7270123192734522</v>
+      </c>
+      <c r="D422">
+        <v>0.6626991821242966</v>
+      </c>
+      <c r="E422">
+        <v>0.7012349588734914</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>0.6141560329791835</v>
+      </c>
+      <c r="C423">
+        <v>0.7254664602323788</v>
+      </c>
+      <c r="D423">
+        <v>0.660152535494799</v>
+      </c>
+      <c r="E423">
+        <v>0.6981291529906369</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>0.6158280790775955</v>
+      </c>
+      <c r="C424">
+        <v>0.7244576184614869</v>
+      </c>
+      <c r="D424">
+        <v>0.668873035410753</v>
+      </c>
+      <c r="E424">
+        <v>0.7005806894588325</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>0.6040994330518346</v>
+      </c>
+      <c r="C425">
+        <v>0.71764359011474</v>
+      </c>
+      <c r="D425">
+        <v>0.6521309190272506</v>
+      </c>
+      <c r="E425">
+        <v>0.6874176074515409</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>0.6139494067381304</v>
+      </c>
+      <c r="C426">
+        <v>0.7270504439041976</v>
+      </c>
+      <c r="D426">
+        <v>0.6486085743300349</v>
+      </c>
+      <c r="E426">
+        <v>0.6951046673372766</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>0.6140042951971886</v>
+      </c>
+      <c r="C427">
+        <v>0.7304344311304178</v>
+      </c>
+      <c r="D427">
+        <v>0.6652226608258492</v>
+      </c>
+      <c r="E427">
+        <v>0.7059047064135103</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>0.6185196747320097</v>
+      </c>
+      <c r="C428">
+        <v>0.7300170114193677</v>
+      </c>
+      <c r="D428">
+        <v>0.6450751337688738</v>
+      </c>
+      <c r="E428">
+        <v>0.6971323391908113</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>0.6191298807609632</v>
+      </c>
+      <c r="C429">
+        <v>0.7272801690378652</v>
+      </c>
+      <c r="D429">
+        <v>0.6589585737674118</v>
+      </c>
+      <c r="E429">
+        <v>0.7064591166502785</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>0.6157010661038387</v>
+      </c>
+      <c r="C430">
+        <v>0.7299232139059789</v>
+      </c>
+      <c r="D430">
+        <v>0.6561405849997083</v>
+      </c>
+      <c r="E430">
+        <v>0.6996191315224661</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>0.6098027420841949</v>
+      </c>
+      <c r="C431">
+        <v>0.728385066451688</v>
+      </c>
+      <c r="D431">
+        <v>0.6443841692277509</v>
+      </c>
+      <c r="E431">
+        <v>0.6907934280367384</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>0.6245655227308049</v>
+      </c>
+      <c r="C432">
+        <v>0.7263055560800673</v>
+      </c>
+      <c r="D432">
+        <v>0.6524716545794957</v>
+      </c>
+      <c r="E432">
+        <v>0.6966145814420652</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>0.6112549835546189</v>
+      </c>
+      <c r="C433">
+        <v>0.7223331181190186</v>
+      </c>
+      <c r="D433">
+        <v>0.6582190739080191</v>
+      </c>
+      <c r="E433">
+        <v>0.7010137360937585</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>0.6224674669858103</v>
+      </c>
+      <c r="C434">
+        <v>0.7289261693409896</v>
+      </c>
+      <c r="D434">
+        <v>0.6504363984818489</v>
+      </c>
+      <c r="E434">
+        <v>0.7015606066526197</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>0.616391389372109</v>
+      </c>
+      <c r="C435">
+        <v>0.7336815287531179</v>
+      </c>
+      <c r="D435">
+        <v>0.664857379504133</v>
+      </c>
+      <c r="E435">
+        <v>0.7036663162166589</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>0.613117723744846</v>
+      </c>
+      <c r="C436">
+        <v>0.729270100654863</v>
+      </c>
+      <c r="D436">
+        <v>0.6643959192335678</v>
+      </c>
+      <c r="E436">
+        <v>0.7008394979383944</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>0.6121859170336968</v>
+      </c>
+      <c r="C437">
+        <v>0.7272509007820787</v>
+      </c>
+      <c r="D437">
+        <v>0.6755446853902809</v>
+      </c>
+      <c r="E437">
+        <v>0.7008141534423998</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>0.6148984081806883</v>
+      </c>
+      <c r="C438">
+        <v>0.716401627320274</v>
+      </c>
+      <c r="D438">
+        <v>0.6420196515790622</v>
+      </c>
+      <c r="E438">
+        <v>0.6835262137766873</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>0.6098068829082411</v>
+      </c>
+      <c r="C439">
+        <v>0.7303626973024321</v>
+      </c>
+      <c r="D439">
+        <v>0.6467317833593044</v>
+      </c>
+      <c r="E439">
+        <v>0.6988247854221008</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>0.6163398951168735</v>
+      </c>
+      <c r="C440">
+        <v>0.7274213596156043</v>
+      </c>
+      <c r="D440">
+        <v>0.6446469198267759</v>
+      </c>
+      <c r="E440">
+        <v>0.6983237585755571</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>0.6159305742909646</v>
+      </c>
+      <c r="C441">
+        <v>0.7389327328013726</v>
+      </c>
+      <c r="D441">
+        <v>0.667162441058177</v>
+      </c>
+      <c r="E441">
+        <v>0.7037329103979091</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>0.6183225875779067</v>
+      </c>
+      <c r="C442">
+        <v>0.7203911454975285</v>
+      </c>
+      <c r="D442">
+        <v>0.6558113045347087</v>
+      </c>
+      <c r="E442">
+        <v>0.6948055018267784</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>0.6207402252203151</v>
+      </c>
+      <c r="C443">
+        <v>0.7336025907163999</v>
+      </c>
+      <c r="D443">
+        <v>0.6543132888610455</v>
+      </c>
+      <c r="E443">
+        <v>0.7037317911375651</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>0.6140311358337464</v>
+      </c>
+      <c r="C444">
+        <v>0.7244465862569074</v>
+      </c>
+      <c r="D444">
+        <v>0.6513872519322208</v>
+      </c>
+      <c r="E444">
+        <v>0.6955857245139616</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>0.6124170143209418</v>
+      </c>
+      <c r="C445">
+        <v>0.7253386183269569</v>
+      </c>
+      <c r="D445">
+        <v>0.6529937366375174</v>
+      </c>
+      <c r="E445">
+        <v>0.6959693545324064</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>0.6139940398232533</v>
+      </c>
+      <c r="C446">
+        <v>0.7206443788373581</v>
+      </c>
+      <c r="D446">
+        <v>0.6421670280221274</v>
+      </c>
+      <c r="E446">
+        <v>0.6944396434760273</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>0.6100607465717727</v>
+      </c>
+      <c r="C447">
+        <v>0.732242411171618</v>
+      </c>
+      <c r="D447">
+        <v>0.6564538739418774</v>
+      </c>
+      <c r="E447">
+        <v>0.6976420265631459</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>0.6077186781671314</v>
+      </c>
+      <c r="C448">
+        <v>0.7248364282265793</v>
+      </c>
+      <c r="D448">
+        <v>0.6580501451969707</v>
+      </c>
+      <c r="E448">
+        <v>0.6955071805846791</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>0.6114631707470219</v>
+      </c>
+      <c r="C449">
+        <v>0.7260972584462274</v>
+      </c>
+      <c r="D449">
+        <v>0.6543452255197666</v>
+      </c>
+      <c r="E449">
+        <v>0.6903905997948062</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>0.615788066473576</v>
+      </c>
+      <c r="C450">
+        <v>0.7267548563337678</v>
+      </c>
+      <c r="D450">
+        <v>0.6515015062140583</v>
+      </c>
+      <c r="E450">
+        <v>0.6965312959125844</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>0.615380894158584</v>
+      </c>
+      <c r="C451">
+        <v>0.7322747136829415</v>
+      </c>
+      <c r="D451">
+        <v>0.6516577106964765</v>
+      </c>
+      <c r="E451">
+        <v>0.7000576230204395</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>0.6093797096481084</v>
+      </c>
+      <c r="C452">
+        <v>0.7265455600291044</v>
+      </c>
+      <c r="D452">
+        <v>0.6591640635757426</v>
+      </c>
+      <c r="E452">
+        <v>0.6955597212866631</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>0.6196322892380306</v>
+      </c>
+      <c r="C453">
+        <v>0.7279702591157288</v>
+      </c>
+      <c r="D453">
+        <v>0.6560473454244724</v>
+      </c>
+      <c r="E453">
+        <v>0.693392757788335</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>0.6089012026898193</v>
+      </c>
+      <c r="C454">
+        <v>0.73424703935836</v>
+      </c>
+      <c r="D454">
+        <v>0.6458512787488446</v>
+      </c>
+      <c r="E454">
+        <v>0.6972490430017251</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>0.6173086300786217</v>
+      </c>
+      <c r="C455">
+        <v>0.7260451171241598</v>
+      </c>
+      <c r="D455">
+        <v>0.6594164857331161</v>
+      </c>
+      <c r="E455">
+        <v>0.6997916529956033</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>0.6113697439861259</v>
+      </c>
+      <c r="C456">
+        <v>0.7216561870657333</v>
+      </c>
+      <c r="D456">
+        <v>0.6506063176658344</v>
+      </c>
+      <c r="E456">
+        <v>0.691663904745814</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>0.618354574924066</v>
+      </c>
+      <c r="C457">
+        <v>0.7319167829445413</v>
+      </c>
+      <c r="D457">
+        <v>0.6708593352503122</v>
+      </c>
+      <c r="E457">
+        <v>0.7079753050848765</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>0.6075615595679782</v>
+      </c>
+      <c r="C458">
+        <v>0.7290878760560047</v>
+      </c>
+      <c r="D458">
+        <v>0.6474587946793092</v>
+      </c>
+      <c r="E458">
+        <v>0.6989214692149635</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>0.617656768730669</v>
+      </c>
+      <c r="C459">
+        <v>0.7288960293683582</v>
+      </c>
+      <c r="D459">
+        <v>0.6575995710504481</v>
+      </c>
+      <c r="E459">
+        <v>0.706110848582683</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>0.6070643088785783</v>
+      </c>
+      <c r="C460">
+        <v>0.727681019187588</v>
+      </c>
+      <c r="D460">
+        <v>0.6529370366961686</v>
+      </c>
+      <c r="E460">
+        <v>0.6916024705510424</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>0.6125494722653626</v>
+      </c>
+      <c r="C461">
+        <v>0.725208527373587</v>
+      </c>
+      <c r="D461">
+        <v>0.6614556611849648</v>
+      </c>
+      <c r="E461">
+        <v>0.6942001482476678</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>0.61063423657769</v>
+      </c>
+      <c r="C462">
+        <v>0.7242072584301897</v>
+      </c>
+      <c r="D462">
+        <v>0.6333106936597039</v>
+      </c>
+      <c r="E462">
+        <v>0.691781822540258</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>0.6124676374977394</v>
+      </c>
+      <c r="C463">
+        <v>0.7312838319903773</v>
+      </c>
+      <c r="D463">
+        <v>0.6508844001044587</v>
+      </c>
+      <c r="E463">
+        <v>0.6962214311558861</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>0.6207314764821796</v>
+      </c>
+      <c r="C464">
+        <v>0.7294460327250167</v>
+      </c>
+      <c r="D464">
+        <v>0.6560385755210846</v>
+      </c>
+      <c r="E464">
+        <v>0.6998605550502952</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>0.6118152572071336</v>
+      </c>
+      <c r="C465">
+        <v>0.7281954464121624</v>
+      </c>
+      <c r="D465">
+        <v>0.6580442967009745</v>
+      </c>
+      <c r="E465">
+        <v>0.6984747342503246</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>0.6131810542649632</v>
+      </c>
+      <c r="C466">
+        <v>0.7176726614847349</v>
+      </c>
+      <c r="D466">
+        <v>0.6489411518532375</v>
+      </c>
+      <c r="E466">
+        <v>0.693847355534526</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>0.6151455792339043</v>
+      </c>
+      <c r="C467">
+        <v>0.7242880202928629</v>
+      </c>
+      <c r="D467">
+        <v>0.6503222143684297</v>
+      </c>
+      <c r="E467">
+        <v>0.6952135312489034</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>0.620973172865162</v>
+      </c>
+      <c r="C468">
+        <v>0.7258047765725892</v>
+      </c>
+      <c r="D468">
+        <v>0.6496509164180095</v>
+      </c>
+      <c r="E468">
+        <v>0.6965992053677824</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>0.6115136319050017</v>
+      </c>
+      <c r="C469">
+        <v>0.7277827306471748</v>
+      </c>
+      <c r="D469">
+        <v>0.656324042652485</v>
+      </c>
+      <c r="E469">
+        <v>0.6980714790751803</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>0.6188244290282157</v>
+      </c>
+      <c r="C470">
+        <v>0.7245178819395246</v>
+      </c>
+      <c r="D470">
+        <v>0.6565515076613897</v>
+      </c>
+      <c r="E470">
+        <v>0.699346893007604</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>0.6234541612957605</v>
+      </c>
+      <c r="C471">
+        <v>0.7325636347142787</v>
+      </c>
+      <c r="D471">
+        <v>0.6553820750580337</v>
+      </c>
+      <c r="E471">
+        <v>0.6963277999796359</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>0.6098493543184205</v>
+      </c>
+      <c r="C472">
+        <v>0.7324194972173543</v>
+      </c>
+      <c r="D472">
+        <v>0.6575152168915065</v>
+      </c>
+      <c r="E472">
+        <v>0.7033812419469083</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>0.6210820152185125</v>
+      </c>
+      <c r="C473">
+        <v>0.7243518199395268</v>
+      </c>
+      <c r="D473">
+        <v>0.6582197933547947</v>
+      </c>
+      <c r="E473">
+        <v>0.6974368563725383</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>0.612242461367536</v>
+      </c>
+      <c r="C474">
+        <v>0.7301760594413209</v>
+      </c>
+      <c r="D474">
+        <v>0.6548337408597897</v>
+      </c>
+      <c r="E474">
+        <v>0.7012025611647803</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>0.6136647909740063</v>
+      </c>
+      <c r="C475">
+        <v>0.7321634851518816</v>
+      </c>
+      <c r="D475">
+        <v>0.668658497997582</v>
+      </c>
+      <c r="E475">
+        <v>0.7052645529507329</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>0.6096726652659422</v>
+      </c>
+      <c r="C476">
+        <v>0.726735108790809</v>
+      </c>
+      <c r="D476">
+        <v>0.6587283097604899</v>
+      </c>
+      <c r="E476">
+        <v>0.6980187154101928</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>0.6183615017585795</v>
+      </c>
+      <c r="C477">
+        <v>0.7318697188742573</v>
+      </c>
+      <c r="D477">
+        <v>0.6479033001633399</v>
+      </c>
+      <c r="E477">
+        <v>0.6966113871107239</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>0.6108535083753688</v>
+      </c>
+      <c r="C478">
+        <v>0.7256721709336632</v>
+      </c>
+      <c r="D478">
+        <v>0.6625280467783382</v>
+      </c>
+      <c r="E478">
+        <v>0.6976237270391167</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>0.6149340810865312</v>
+      </c>
+      <c r="C479">
+        <v>0.7308153888916139</v>
+      </c>
+      <c r="D479">
+        <v>0.6613378351127898</v>
+      </c>
+      <c r="E479">
+        <v>0.6977730906950508</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>0.6156592133178658</v>
+      </c>
+      <c r="C480">
+        <v>0.7322551367811638</v>
+      </c>
+      <c r="D480">
+        <v>0.6475645356697859</v>
+      </c>
+      <c r="E480">
+        <v>0.7025667479656991</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>0.6161172438164886</v>
+      </c>
+      <c r="C481">
+        <v>0.7346000974310325</v>
+      </c>
+      <c r="D481">
+        <v>0.641942583175643</v>
+      </c>
+      <c r="E481">
+        <v>0.7002187829797567</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>0.6155833812922084</v>
+      </c>
+      <c r="C482">
+        <v>0.7261289231502572</v>
+      </c>
+      <c r="D482">
+        <v>0.6637399339562549</v>
+      </c>
+      <c r="E482">
+        <v>0.6991222343649732</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>0.6163611673745959</v>
+      </c>
+      <c r="C483">
+        <v>0.7288444978884048</v>
+      </c>
+      <c r="D483">
+        <v>0.6624428665267573</v>
+      </c>
+      <c r="E483">
+        <v>0.7028919177186541</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>0.616002172869451</v>
+      </c>
+      <c r="C484">
+        <v>0.7271559954232583</v>
+      </c>
+      <c r="D484">
+        <v>0.6618498987558337</v>
+      </c>
+      <c r="E484">
+        <v>0.6985870934442145</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>0.6172028070623524</v>
+      </c>
+      <c r="C485">
+        <v>0.7342083057978259</v>
+      </c>
+      <c r="D485">
+        <v>0.6491737071752502</v>
+      </c>
+      <c r="E485">
+        <v>0.7016617205790525</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>0.6177464533162579</v>
+      </c>
+      <c r="C486">
+        <v>0.7286314771408022</v>
+      </c>
+      <c r="D486">
+        <v>0.6524443710476853</v>
+      </c>
+      <c r="E486">
+        <v>0.7028748404607731</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>0.6161121062895409</v>
+      </c>
+      <c r="C487">
+        <v>0.7316240022622156</v>
+      </c>
+      <c r="D487">
+        <v>0.6510560530246444</v>
+      </c>
+      <c r="E487">
+        <v>0.6988253584384179</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>0.6173174369161111</v>
+      </c>
+      <c r="C488">
+        <v>0.7304237724915634</v>
+      </c>
+      <c r="D488">
+        <v>0.6540653254632157</v>
+      </c>
+      <c r="E488">
+        <v>0.7039273223620959</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>0.6143752382404514</v>
+      </c>
+      <c r="C489">
+        <v>0.7268611725242053</v>
+      </c>
+      <c r="D489">
+        <v>0.6540240908744377</v>
+      </c>
+      <c r="E489">
+        <v>0.7003846916215598</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>0.6198790864134918</v>
+      </c>
+      <c r="C490">
+        <v>0.7313090647990235</v>
+      </c>
+      <c r="D490">
+        <v>0.6638407825627205</v>
+      </c>
+      <c r="E490">
+        <v>0.7041138206081995</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>0.6168416031295813</v>
+      </c>
+      <c r="C491">
+        <v>0.7298088589867732</v>
+      </c>
+      <c r="D491">
+        <v>0.6732237761353467</v>
+      </c>
+      <c r="E491">
+        <v>0.7098310019725624</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>0.6126911853297606</v>
+      </c>
+      <c r="C492">
+        <v>0.7249958090598851</v>
+      </c>
+      <c r="D492">
+        <v>0.6528090074210995</v>
+      </c>
+      <c r="E492">
+        <v>0.6926835871715249</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>0.614113972497471</v>
+      </c>
+      <c r="C493">
+        <v>0.7221460497759151</v>
+      </c>
+      <c r="D493">
+        <v>0.662323036144723</v>
+      </c>
+      <c r="E493">
+        <v>0.6982992978780247</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>0.6167187805118109</v>
+      </c>
+      <c r="C494">
+        <v>0.729733408263632</v>
+      </c>
+      <c r="D494">
+        <v>0.646127126951288</v>
+      </c>
+      <c r="E494">
+        <v>0.7010778958322765</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>0.6185532159921328</v>
+      </c>
+      <c r="C495">
+        <v>0.7303782551795505</v>
+      </c>
+      <c r="D495">
+        <v>0.6588775271436442</v>
+      </c>
+      <c r="E495">
+        <v>0.7006108241021399</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>0.6210749365758262</v>
+      </c>
+      <c r="C496">
+        <v>0.7273083101435789</v>
+      </c>
+      <c r="D496">
+        <v>0.6547140466899471</v>
+      </c>
+      <c r="E496">
+        <v>0.6986950184166476</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>0.6151884334519834</v>
+      </c>
+      <c r="C497">
+        <v>0.7283510863654712</v>
+      </c>
+      <c r="D497">
+        <v>0.64972457819968</v>
+      </c>
+      <c r="E497">
+        <v>0.7033585566024743</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>0.6168328160078227</v>
+      </c>
+      <c r="C498">
+        <v>0.7281035472248721</v>
+      </c>
+      <c r="D498">
+        <v>0.6582616490150524</v>
+      </c>
+      <c r="E498">
+        <v>0.7002008545539447</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>0.6138596196290154</v>
+      </c>
+      <c r="C499">
+        <v>0.7225963550650656</v>
+      </c>
+      <c r="D499">
+        <v>0.6498179050234164</v>
+      </c>
+      <c r="E499">
+        <v>0.6950463395086266</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>0.6195583105984737</v>
+      </c>
+      <c r="C500">
+        <v>0.7417854416715393</v>
+      </c>
+      <c r="D500">
+        <v>0.6523197595007103</v>
+      </c>
+      <c r="E500">
+        <v>0.7067970581825846</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>0.6164434788919043</v>
+      </c>
+      <c r="C501">
+        <v>0.7286022077732737</v>
+      </c>
+      <c r="D501">
+        <v>0.6522194253213704</v>
+      </c>
+      <c r="E501">
+        <v>0.6998667904400788</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>0.6149221721293963</v>
+      </c>
+      <c r="C502">
+        <v>0.7263211092593385</v>
+      </c>
+      <c r="D502">
+        <v>0.6545397513876425</v>
+      </c>
+      <c r="E502">
+        <v>0.700788071734826</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>0.6095621606579757</v>
+      </c>
+      <c r="C503">
+        <v>0.7251758557564761</v>
+      </c>
+      <c r="D503">
+        <v>0.6380353820409375</v>
+      </c>
+      <c r="E503">
+        <v>0.6898499688657007</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>0.6088572378578185</v>
+      </c>
+      <c r="C504">
+        <v>0.7228856442903979</v>
+      </c>
+      <c r="D504">
+        <v>0.6467097463555797</v>
+      </c>
+      <c r="E504">
+        <v>0.691863032160682</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>0.6126558090480102</v>
+      </c>
+      <c r="C505">
+        <v>0.7291255672560295</v>
+      </c>
+      <c r="D505">
+        <v>0.6637541792750279</v>
+      </c>
+      <c r="E505">
+        <v>0.7033056490428546</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>0.6132143246589138</v>
+      </c>
+      <c r="C506">
+        <v>0.7296775476430253</v>
+      </c>
+      <c r="D506">
+        <v>0.6646867523204125</v>
+      </c>
+      <c r="E506">
+        <v>0.7005336788561826</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>0.610742997643491</v>
+      </c>
+      <c r="C507">
+        <v>0.7361361237902995</v>
+      </c>
+      <c r="D507">
+        <v>0.6643142191508171</v>
+      </c>
+      <c r="E507">
+        <v>0.7018846429807833</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>0.6123912757850479</v>
+      </c>
+      <c r="C508">
+        <v>0.7317724346340823</v>
+      </c>
+      <c r="D508">
+        <v>0.6580804099329917</v>
+      </c>
+      <c r="E508">
+        <v>0.7011824990145841</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <v>0.6122595682309496</v>
+      </c>
+      <c r="C509">
+        <v>0.7348663077887074</v>
+      </c>
+      <c r="D509">
+        <v>0.6644306894719663</v>
+      </c>
+      <c r="E509">
+        <v>0.7051811088685056</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <v>0.6187370388386799</v>
+      </c>
+      <c r="C510">
+        <v>0.7274863383314701</v>
+      </c>
+      <c r="D510">
+        <v>0.657189906437839</v>
+      </c>
+      <c r="E510">
+        <v>0.7063651569847325</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <v>0.6174561545393626</v>
+      </c>
+      <c r="C511">
+        <v>0.7336902852250435</v>
+      </c>
+      <c r="D511">
+        <v>0.6611855634997561</v>
+      </c>
+      <c r="E511">
+        <v>0.6995728252396132</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <v>0.6185461129004656</v>
+      </c>
+      <c r="C512">
+        <v>0.7204265672212824</v>
+      </c>
+      <c r="D512">
+        <v>0.6500368011766776</v>
+      </c>
+      <c r="E512">
+        <v>0.6968410213169601</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>0.6173015368105843</v>
+      </c>
+      <c r="C513">
+        <v>0.7299485571230132</v>
+      </c>
+      <c r="D513">
+        <v>0.6648618251013344</v>
+      </c>
+      <c r="E513">
+        <v>0.7013112632076332</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <v>0.618935662155903</v>
+      </c>
+      <c r="C514">
+        <v>0.7266435455122346</v>
+      </c>
+      <c r="D514">
+        <v>0.6482086421583875</v>
+      </c>
+      <c r="E514">
+        <v>0.6977259530524932</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>0.6232176590281531</v>
+      </c>
+      <c r="C515">
+        <v>0.7290041475123807</v>
+      </c>
+      <c r="D515">
+        <v>0.6531256242022445</v>
+      </c>
+      <c r="E515">
+        <v>0.7079732218823058</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>0.6198546387208971</v>
+      </c>
+      <c r="C516">
+        <v>0.7261492479259936</v>
+      </c>
+      <c r="D516">
+        <v>0.649332834712618</v>
+      </c>
+      <c r="E516">
+        <v>0.694891395781845</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>0.6135001598536094</v>
+      </c>
+      <c r="C517">
+        <v>0.7240114966335733</v>
+      </c>
+      <c r="D517">
+        <v>0.6568998803354409</v>
+      </c>
+      <c r="E517">
+        <v>0.696602659508012</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>0.6131934665606297</v>
+      </c>
+      <c r="C518">
+        <v>0.7261096802593531</v>
+      </c>
+      <c r="D518">
+        <v>0.6425823915248178</v>
+      </c>
+      <c r="E518">
+        <v>0.6948949600780199</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>0.6208176288416363</v>
+      </c>
+      <c r="C519">
+        <v>0.7266530475168592</v>
+      </c>
+      <c r="D519">
+        <v>0.6573850340180344</v>
+      </c>
+      <c r="E519">
+        <v>0.7007715086807311</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>0.6132647836387832</v>
+      </c>
+      <c r="C520">
+        <v>0.7296897957235016</v>
+      </c>
+      <c r="D520">
+        <v>0.6575985128336725</v>
+      </c>
+      <c r="E520">
+        <v>0.7007496702811413</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>0.6194076772988989</v>
+      </c>
+      <c r="C521">
+        <v>0.7322452859453912</v>
+      </c>
+      <c r="D521">
+        <v>0.6642339588781362</v>
+      </c>
+      <c r="E521">
+        <v>0.6992046844830485</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>0.6209642344240036</v>
+      </c>
+      <c r="C522">
+        <v>0.7282502848824554</v>
+      </c>
+      <c r="D522">
+        <v>0.6512147470937837</v>
+      </c>
+      <c r="E522">
+        <v>0.6960441527764842</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <v>0.6171777043032269</v>
+      </c>
+      <c r="C523">
+        <v>0.7232962932529199</v>
+      </c>
+      <c r="D523">
+        <v>0.6527295900723047</v>
+      </c>
+      <c r="E523">
+        <v>0.6992019643046101</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <v>0.6133873733286221</v>
+      </c>
+      <c r="C524">
+        <v>0.7329695140911832</v>
+      </c>
+      <c r="D524">
+        <v>0.66344234285543</v>
+      </c>
+      <c r="E524">
+        <v>0.7000204981380606</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>0.6120107736841204</v>
+      </c>
+      <c r="C525">
+        <v>0.7278656213525954</v>
+      </c>
+      <c r="D525">
+        <v>0.6542489741387536</v>
+      </c>
+      <c r="E525">
+        <v>0.6992735776803913</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>0.6111043351579145</v>
+      </c>
+      <c r="C526">
+        <v>0.725223158352305</v>
+      </c>
+      <c r="D526">
+        <v>0.6438926978648566</v>
+      </c>
+      <c r="E526">
+        <v>0.6920018567496625</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>0.6152531497650986</v>
+      </c>
+      <c r="C527">
+        <v>0.7262240713021266</v>
+      </c>
+      <c r="D527">
+        <v>0.6544802422300098</v>
+      </c>
+      <c r="E527">
+        <v>0.6973793807928249</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>0.6175099864244109</v>
+      </c>
+      <c r="C528">
+        <v>0.7319032651409574</v>
+      </c>
+      <c r="D528">
+        <v>0.6498832150864178</v>
+      </c>
+      <c r="E528">
+        <v>0.6986480888280323</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>0.6197341591314707</v>
+      </c>
+      <c r="C529">
+        <v>0.7282642977960346</v>
+      </c>
+      <c r="D529">
+        <v>0.6513819825090189</v>
+      </c>
+      <c r="E529">
+        <v>0.7018374856396756</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <v>0.618622034672871</v>
+      </c>
+      <c r="C530">
+        <v>0.7320464072101833</v>
+      </c>
+      <c r="D530">
+        <v>0.6494199158590055</v>
+      </c>
+      <c r="E530">
+        <v>0.6982001539915011</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <v>0.6126798228296607</v>
+      </c>
+      <c r="C531">
+        <v>0.7222723082371962</v>
+      </c>
+      <c r="D531">
+        <v>0.6499468910945646</v>
+      </c>
+      <c r="E531">
+        <v>0.6902032227499131</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>0.6194012903023016</v>
+      </c>
+      <c r="C532">
+        <v>0.7349112426035503</v>
+      </c>
+      <c r="D532">
+        <v>0.6732922353976598</v>
+      </c>
+      <c r="E532">
+        <v>0.7081410059957409</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>0.6222373227322864</v>
+      </c>
+      <c r="C533">
+        <v>0.7317569281526659</v>
+      </c>
+      <c r="D533">
+        <v>0.6526510575858055</v>
+      </c>
+      <c r="E533">
+        <v>0.7029350895145067</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>0.6127074977795519</v>
+      </c>
+      <c r="C534">
+        <v>0.7290339285925069</v>
+      </c>
+      <c r="D534">
+        <v>0.658891916267845</v>
+      </c>
+      <c r="E534">
+        <v>0.7027277004251071</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>0.6117286365789361</v>
+      </c>
+      <c r="C535">
+        <v>0.7228245913874657</v>
+      </c>
+      <c r="D535">
+        <v>0.6542648294145301</v>
+      </c>
+      <c r="E535">
+        <v>0.6913250718639941</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>0.6137747692494075</v>
+      </c>
+      <c r="C536">
+        <v>0.7318424459941395</v>
+      </c>
+      <c r="D536">
+        <v>0.657709076316168</v>
+      </c>
+      <c r="E536">
+        <v>0.7003982766584134</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>0.6191405099589242</v>
+      </c>
+      <c r="C537">
+        <v>0.7304298046369657</v>
+      </c>
+      <c r="D537">
+        <v>0.6697519062352822</v>
+      </c>
+      <c r="E537">
+        <v>0.7057780540005604</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>0.6192580683025227</v>
+      </c>
+      <c r="C538">
+        <v>0.7221805803313736</v>
+      </c>
+      <c r="D538">
+        <v>0.6542026590269395</v>
+      </c>
+      <c r="E538">
+        <v>0.6956994171181863</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>0.623449990205709</v>
+      </c>
+      <c r="C539">
+        <v>0.728251764839676</v>
+      </c>
+      <c r="D539">
+        <v>0.6642686013824768</v>
+      </c>
+      <c r="E539">
+        <v>0.7077256475737024</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>0.6140702776167026</v>
+      </c>
+      <c r="C540">
+        <v>0.7266849413676577</v>
+      </c>
+      <c r="D540">
+        <v>0.65796315854212</v>
+      </c>
+      <c r="E540">
+        <v>0.6934551000412634</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>0.6134815264219972</v>
+      </c>
+      <c r="C541">
+        <v>0.7259380117743404</v>
+      </c>
+      <c r="D541">
+        <v>0.652853510125644</v>
+      </c>
+      <c r="E541">
+        <v>0.6967214307594172</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>0.6140362203106872</v>
+      </c>
+      <c r="C542">
+        <v>0.7306334708635567</v>
+      </c>
+      <c r="D542">
+        <v>0.65682616700567</v>
+      </c>
+      <c r="E542">
+        <v>0.7028944819614549</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <v>0.6058003671442074</v>
+      </c>
+      <c r="C543">
+        <v>0.723912060055813</v>
+      </c>
+      <c r="D543">
+        <v>0.6431635415324493</v>
+      </c>
+      <c r="E543">
+        <v>0.6910049788654036</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>0.6074273051561992</v>
+      </c>
+      <c r="C544">
+        <v>0.7329449068569163</v>
+      </c>
+      <c r="D544">
+        <v>0.6539916405433648</v>
+      </c>
+      <c r="E544">
+        <v>0.6977236695132057</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>0.6183453333916639</v>
+      </c>
+      <c r="C545">
+        <v>0.7264178248783458</v>
+      </c>
+      <c r="D545">
+        <v>0.6608314978146592</v>
+      </c>
+      <c r="E545">
+        <v>0.6998517888663274</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>0.6111594137370179</v>
+      </c>
+      <c r="C546">
+        <v>0.7258557865976292</v>
+      </c>
+      <c r="D546">
+        <v>0.6697361714655253</v>
+      </c>
+      <c r="E546">
+        <v>0.7023487402051627</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>0.6164249001058707</v>
+      </c>
+      <c r="C547">
+        <v>0.7247780130460025</v>
+      </c>
+      <c r="D547">
+        <v>0.6591753184658994</v>
+      </c>
+      <c r="E547">
+        <v>0.7011551859567638</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>0.6164927146786709</v>
+      </c>
+      <c r="C548">
+        <v>0.7297782214343578</v>
+      </c>
+      <c r="D548">
+        <v>0.6532878430581267</v>
+      </c>
+      <c r="E548">
+        <v>0.6978008538949244</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>0.6127574490890493</v>
+      </c>
+      <c r="C549">
+        <v>0.7277258326226987</v>
+      </c>
+      <c r="D549">
+        <v>0.6496585692088463</v>
+      </c>
+      <c r="E549">
+        <v>0.6923905006951743</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>0.6182398674004563</v>
+      </c>
+      <c r="C550">
+        <v>0.7233264496682755</v>
+      </c>
+      <c r="D550">
+        <v>0.6537192698000629</v>
+      </c>
+      <c r="E550">
+        <v>0.6916235773299301</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>0.6074088319275618</v>
+      </c>
+      <c r="C551">
+        <v>0.7273598366994609</v>
+      </c>
+      <c r="D551">
+        <v>0.6484880080086939</v>
+      </c>
+      <c r="E551">
+        <v>0.6939659524358953</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>0.6160160528632309</v>
+      </c>
+      <c r="C552">
+        <v>0.7288217127034728</v>
+      </c>
+      <c r="D552">
+        <v>0.6532857604391429</v>
+      </c>
+      <c r="E552">
+        <v>0.6985028963930919</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>0.6161450228145042</v>
+      </c>
+      <c r="C553">
+        <v>0.7289056155710205</v>
+      </c>
+      <c r="D553">
+        <v>0.6570428929934506</v>
+      </c>
+      <c r="E553">
+        <v>0.6967029779102109</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <v>0.6230257535557973</v>
+      </c>
+      <c r="C554">
+        <v>0.7333861553176595</v>
+      </c>
+      <c r="D554">
+        <v>0.6698124071650472</v>
+      </c>
+      <c r="E554">
+        <v>0.7057221954097437</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <v>0.610649987380954</v>
+      </c>
+      <c r="C555">
+        <v>0.7241219894067412</v>
+      </c>
+      <c r="D555">
+        <v>0.6478589926017608</v>
+      </c>
+      <c r="E555">
+        <v>0.6869199646787065</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556">
+        <v>0.6146060761832024</v>
+      </c>
+      <c r="C556">
+        <v>0.7315968465302336</v>
+      </c>
+      <c r="D556">
+        <v>0.6635231588863335</v>
+      </c>
+      <c r="E556">
+        <v>0.7028011648020605</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557">
+        <v>0.6128901848883681</v>
+      </c>
+      <c r="C557">
+        <v>0.7313639126799629</v>
+      </c>
+      <c r="D557">
+        <v>0.6597471118849076</v>
+      </c>
+      <c r="E557">
+        <v>0.6998013215245253</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558">
+        <v>0.6176873128782605</v>
+      </c>
+      <c r="C558">
+        <v>0.7333851018433764</v>
+      </c>
+      <c r="D558">
+        <v>0.6479372342172909</v>
+      </c>
+      <c r="E558">
+        <v>0.7008064377229866</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <v>0.6146326393335163</v>
+      </c>
+      <c r="C559">
+        <v>0.7214143700074698</v>
+      </c>
+      <c r="D559">
+        <v>0.6553696973421446</v>
+      </c>
+      <c r="E559">
+        <v>0.6920943902634226</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>0.6119098824713814</v>
+      </c>
+      <c r="C560">
+        <v>0.7238255386257033</v>
+      </c>
+      <c r="D560">
+        <v>0.6458921306351145</v>
+      </c>
+      <c r="E560">
+        <v>0.6936568669592628</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>0.6209393290539575</v>
+      </c>
+      <c r="C561">
+        <v>0.7222196898723084</v>
+      </c>
+      <c r="D561">
+        <v>0.6603847025080964</v>
+      </c>
+      <c r="E561">
+        <v>0.6963814788602418</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>0.6148476030775301</v>
+      </c>
+      <c r="C562">
+        <v>0.7302713517316455</v>
+      </c>
+      <c r="D562">
+        <v>0.6563676683455067</v>
+      </c>
+      <c r="E562">
+        <v>0.7011636999764692</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>0.6139902413821716</v>
+      </c>
+      <c r="C563">
+        <v>0.7242860129286139</v>
+      </c>
+      <c r="D563">
+        <v>0.6550020811054715</v>
+      </c>
+      <c r="E563">
+        <v>0.6964472647509827</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>0.6184015665239807</v>
+      </c>
+      <c r="C564">
+        <v>0.7313195391133459</v>
+      </c>
+      <c r="D564">
+        <v>0.665849251701065</v>
+      </c>
+      <c r="E564">
+        <v>0.7089219743259412</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>0.6229292363613309</v>
+      </c>
+      <c r="C565">
+        <v>0.7272509219243652</v>
+      </c>
+      <c r="D565">
+        <v>0.6603662337936792</v>
+      </c>
+      <c r="E565">
+        <v>0.7063678821627447</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>0.6181581213229171</v>
+      </c>
+      <c r="C566">
+        <v>0.7250481211083405</v>
+      </c>
+      <c r="D566">
+        <v>0.6659247548762572</v>
+      </c>
+      <c r="E566">
+        <v>0.7006835328041046</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>0.6136881300156586</v>
+      </c>
+      <c r="C567">
+        <v>0.733047257291055</v>
+      </c>
+      <c r="D567">
+        <v>0.6539215722254845</v>
+      </c>
+      <c r="E567">
+        <v>0.7001421205226072</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>0.6156280861005672</v>
+      </c>
+      <c r="C568">
+        <v>0.7265286727570572</v>
+      </c>
+      <c r="D568">
+        <v>0.6476599892796695</v>
+      </c>
+      <c r="E568">
+        <v>0.6902071504798416</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>0.6185828513624423</v>
+      </c>
+      <c r="C569">
+        <v>0.7223304290581098</v>
+      </c>
+      <c r="D569">
+        <v>0.6425817968980047</v>
+      </c>
+      <c r="E569">
+        <v>0.6970091258403065</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>0.6238672131752889</v>
+      </c>
+      <c r="C570">
+        <v>0.7342346294449984</v>
+      </c>
+      <c r="D570">
+        <v>0.6528103098113068</v>
+      </c>
+      <c r="E570">
+        <v>0.7050606698423248</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>0.6123578820293215</v>
+      </c>
+      <c r="C571">
+        <v>0.732724971321149</v>
+      </c>
+      <c r="D571">
+        <v>0.6424383930233815</v>
+      </c>
+      <c r="E571">
+        <v>0.7035573787229954</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <v>0.6224964838298084</v>
+      </c>
+      <c r="C572">
+        <v>0.7283170402977954</v>
+      </c>
+      <c r="D572">
+        <v>0.6570704509379747</v>
+      </c>
+      <c r="E572">
+        <v>0.7029956153402617</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <v>0.6211565128234977</v>
+      </c>
+      <c r="C573">
+        <v>0.7300484697234</v>
+      </c>
+      <c r="D573">
+        <v>0.6469392952184503</v>
+      </c>
+      <c r="E573">
+        <v>0.6986608677620557</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <v>0.6162336813714235</v>
+      </c>
+      <c r="C574">
+        <v>0.7314869640949162</v>
+      </c>
+      <c r="D574">
+        <v>0.650908591820911</v>
+      </c>
+      <c r="E574">
+        <v>0.6963394951148273</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <v>0.6152940506228076</v>
+      </c>
+      <c r="C575">
+        <v>0.7297302822269357</v>
+      </c>
+      <c r="D575">
+        <v>0.6454741569720149</v>
+      </c>
+      <c r="E575">
+        <v>0.7002316297190405</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <v>0.6166668392667283</v>
+      </c>
+      <c r="C576">
+        <v>0.7297876697848952</v>
+      </c>
+      <c r="D576">
+        <v>0.6478726625785449</v>
+      </c>
+      <c r="E576">
+        <v>0.6910302069153345</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <v>0.6124889912802314</v>
+      </c>
+      <c r="C577">
+        <v>0.7336897251629386</v>
+      </c>
+      <c r="D577">
+        <v>0.6566576760125387</v>
+      </c>
+      <c r="E577">
+        <v>0.6986212626654182</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <v>0.6152408360187653</v>
+      </c>
+      <c r="C578">
+        <v>0.7304588401895014</v>
+      </c>
+      <c r="D578">
+        <v>0.6575188148049876</v>
+      </c>
+      <c r="E578">
+        <v>0.6994565072543681</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <v>0.6103017557155787</v>
+      </c>
+      <c r="C579">
+        <v>0.7296570511056234</v>
+      </c>
+      <c r="D579">
+        <v>0.6486973881259035</v>
+      </c>
+      <c r="E579">
+        <v>0.6953224722002448</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580">
+        <v>0.6160063292466995</v>
+      </c>
+      <c r="C580">
+        <v>0.7365301257723174</v>
+      </c>
+      <c r="D580">
+        <v>0.6610640226163025</v>
+      </c>
+      <c r="E580">
+        <v>0.7045393440278828</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581">
+        <v>0.6101461886792681</v>
+      </c>
+      <c r="C581">
+        <v>0.7293928590744516</v>
+      </c>
+      <c r="D581">
+        <v>0.6510137547222088</v>
+      </c>
+      <c r="E581">
+        <v>0.6981555927601509</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582">
+        <v>0.6123402893271033</v>
+      </c>
+      <c r="C582">
+        <v>0.7252464956046567</v>
+      </c>
+      <c r="D582">
+        <v>0.6538848631239935</v>
+      </c>
+      <c r="E582">
+        <v>0.6963236846968137</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583">
+        <v>0.6131300858951175</v>
+      </c>
+      <c r="C583">
+        <v>0.7320741033755275</v>
+      </c>
+      <c r="D583">
+        <v>0.6581280138637734</v>
+      </c>
+      <c r="E583">
+        <v>0.6986673071127185</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584">
+        <v>0.6153619000668694</v>
+      </c>
+      <c r="C584">
+        <v>0.7316723875788887</v>
+      </c>
+      <c r="D584">
+        <v>0.6508196076182295</v>
+      </c>
+      <c r="E584">
+        <v>0.7029816670490099</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585">
+        <v>0.6152790346907994</v>
+      </c>
+      <c r="C585">
+        <v>0.7164975547328487</v>
+      </c>
+      <c r="D585">
+        <v>0.6562959915901093</v>
+      </c>
+      <c r="E585">
+        <v>0.6969683257918552</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586">
+        <v>0.614912682455784</v>
+      </c>
+      <c r="C586">
+        <v>0.7247808626779614</v>
+      </c>
+      <c r="D586">
+        <v>0.6583793260839023</v>
+      </c>
+      <c r="E586">
+        <v>0.6960897064681688</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587">
+        <v>0.6083014980711209</v>
+      </c>
+      <c r="C587">
+        <v>0.7208060012909231</v>
+      </c>
+      <c r="D587">
+        <v>0.6573106020804875</v>
+      </c>
+      <c r="E587">
+        <v>0.6961278876896981</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588">
+        <v>0.6040066466379302</v>
+      </c>
+      <c r="C588">
+        <v>0.7239544877925692</v>
+      </c>
+      <c r="D588">
+        <v>0.6451186422030516</v>
+      </c>
+      <c r="E588">
+        <v>0.6895335517968353</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589">
+        <v>0.6079341530840123</v>
+      </c>
+      <c r="C589">
+        <v>0.7360002140820068</v>
+      </c>
+      <c r="D589">
+        <v>0.6597924858176677</v>
+      </c>
+      <c r="E589">
+        <v>0.7014533309033865</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590">
+        <v>0.6187573440075202</v>
+      </c>
+      <c r="C590">
+        <v>0.7301888821134153</v>
+      </c>
+      <c r="D590">
+        <v>0.6484817392453011</v>
+      </c>
+      <c r="E590">
+        <v>0.6991069686855359</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591">
+        <v>0.6172080648302936</v>
+      </c>
+      <c r="C591">
+        <v>0.7283076384366518</v>
+      </c>
+      <c r="D591">
+        <v>0.6688047801780006</v>
+      </c>
+      <c r="E591">
+        <v>0.7060100097342801</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592">
+        <v>0.6085915319081727</v>
+      </c>
+      <c r="C592">
+        <v>0.7277578314697397</v>
+      </c>
+      <c r="D592">
+        <v>0.6559775850224925</v>
+      </c>
+      <c r="E592">
+        <v>0.695404851115492</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593">
+        <v>0.6132387582299618</v>
+      </c>
+      <c r="C593">
+        <v>0.7300721151756464</v>
+      </c>
+      <c r="D593">
+        <v>0.6483170795773835</v>
+      </c>
+      <c r="E593">
+        <v>0.6955736180254575</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594">
+        <v>0.6179196385912225</v>
+      </c>
+      <c r="C594">
+        <v>0.7307382139728802</v>
+      </c>
+      <c r="D594">
+        <v>0.6567813737116921</v>
+      </c>
+      <c r="E594">
+        <v>0.7018051419982709</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595">
+        <v>0.6203936639475349</v>
+      </c>
+      <c r="C595">
+        <v>0.7324560445852207</v>
+      </c>
+      <c r="D595">
+        <v>0.6489060637996422</v>
+      </c>
+      <c r="E595">
+        <v>0.7041323318058839</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596">
+        <v>0.6128592457136929</v>
+      </c>
+      <c r="C596">
+        <v>0.7337809854831876</v>
+      </c>
+      <c r="D596">
+        <v>0.6563702349147061</v>
+      </c>
+      <c r="E596">
+        <v>0.7034499044605262</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <v>0.6219797024314246</v>
+      </c>
+      <c r="C597">
+        <v>0.7348957395057345</v>
+      </c>
+      <c r="D597">
+        <v>0.6527696293449208</v>
+      </c>
+      <c r="E597">
+        <v>0.7041458913414057</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <v>0.6147261191009967</v>
+      </c>
+      <c r="C598">
+        <v>0.7375310252657036</v>
+      </c>
+      <c r="D598">
+        <v>0.6622285176677406</v>
+      </c>
+      <c r="E598">
+        <v>0.7103541833525659</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <v>0.6068219480246579</v>
+      </c>
+      <c r="C599">
+        <v>0.7212345854549227</v>
+      </c>
+      <c r="D599">
+        <v>0.6418546505456103</v>
+      </c>
+      <c r="E599">
+        <v>0.6878734317649229</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <v>0.6175971239646314</v>
+      </c>
+      <c r="C600">
+        <v>0.736216152296595</v>
+      </c>
+      <c r="D600">
+        <v>0.6588507515068762</v>
+      </c>
+      <c r="E600">
+        <v>0.7074687737394449</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <v>0.6106617985239905</v>
+      </c>
+      <c r="C601">
+        <v>0.7326232990967968</v>
+      </c>
+      <c r="D601">
+        <v>0.6550620706939032</v>
+      </c>
+      <c r="E601">
+        <v>0.7000025521221047</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602">
+        <v>0.6148529463427989</v>
+      </c>
+      <c r="C602">
+        <v>0.726166320000097</v>
+      </c>
+      <c r="D602">
+        <v>0.671358456463565</v>
+      </c>
+      <c r="E602">
+        <v>0.7035170403679794</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603">
+        <v>0.6195629973366449</v>
+      </c>
+      <c r="C603">
+        <v>0.7332165852730204</v>
+      </c>
+      <c r="D603">
+        <v>0.6559739988869847</v>
+      </c>
+      <c r="E603">
+        <v>0.699453440303263</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604">
+        <v>0.6156461289759667</v>
+      </c>
+      <c r="C604">
+        <v>0.7366934921969386</v>
+      </c>
+      <c r="D604">
+        <v>0.6504057725874075</v>
+      </c>
+      <c r="E604">
+        <v>0.7066469035699534</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605">
+        <v>0.6216047587045168</v>
+      </c>
+      <c r="C605">
+        <v>0.7294381556232441</v>
+      </c>
+      <c r="D605">
+        <v>0.6529200858049233</v>
+      </c>
+      <c r="E605">
+        <v>0.7063789814135278</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606">
+        <v>0.6201601773211918</v>
+      </c>
+      <c r="C606">
+        <v>0.736486764284795</v>
+      </c>
+      <c r="D606">
+        <v>0.6635086012504053</v>
+      </c>
+      <c r="E606">
+        <v>0.7074652226598812</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607">
+        <v>0.6091043501745304</v>
+      </c>
+      <c r="C607">
+        <v>0.7312663640915517</v>
+      </c>
+      <c r="D607">
+        <v>0.6416669355426574</v>
+      </c>
+      <c r="E607">
+        <v>0.6948817662643088</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608">
+        <v>0.6160675100038725</v>
+      </c>
+      <c r="C608">
+        <v>0.724570502799172</v>
+      </c>
+      <c r="D608">
+        <v>0.6442153234943993</v>
+      </c>
+      <c r="E608">
+        <v>0.6933571657367966</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609">
+        <v>0.6132945339181011</v>
+      </c>
+      <c r="C609">
+        <v>0.7340096672594019</v>
+      </c>
+      <c r="D609">
+        <v>0.6658368372319864</v>
+      </c>
+      <c r="E609">
+        <v>0.7000349484465145</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610">
+        <v>0.613647467793671</v>
+      </c>
+      <c r="C610">
+        <v>0.7232516222147256</v>
+      </c>
+      <c r="D610">
+        <v>0.6486977053984511</v>
+      </c>
+      <c r="E610">
+        <v>0.6908474714355765</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" s="1">
+        <v>609</v>
+      </c>
+      <c r="B611">
+        <v>0.6184508498185742</v>
+      </c>
+      <c r="C611">
+        <v>0.7344753615874796</v>
+      </c>
+      <c r="D611">
+        <v>0.6595701689089561</v>
+      </c>
+      <c r="E611">
+        <v>0.7053871557005231</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="A612" s="1">
+        <v>610</v>
+      </c>
+      <c r="B612">
+        <v>0.6143261004222572</v>
+      </c>
+      <c r="C612">
+        <v>0.7299557300651772</v>
+      </c>
+      <c r="D612">
+        <v>0.6447851325361862</v>
+      </c>
+      <c r="E612">
+        <v>0.702663582286452</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5">
+      <c r="A613" s="1">
+        <v>611</v>
+      </c>
+      <c r="B613">
+        <v>0.6159937358411677</v>
+      </c>
+      <c r="C613">
+        <v>0.7328271132472348</v>
+      </c>
+      <c r="D613">
+        <v>0.6544280144978212</v>
+      </c>
+      <c r="E613">
+        <v>0.7038503550220614</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="A614" s="1">
+        <v>612</v>
+      </c>
+      <c r="B614">
+        <v>0.6135421681077955</v>
+      </c>
+      <c r="C614">
+        <v>0.7302631710589751</v>
+      </c>
+      <c r="D614">
+        <v>0.6561699822744888</v>
+      </c>
+      <c r="E614">
+        <v>0.6973214486568649</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="A615" s="1">
+        <v>613</v>
+      </c>
+      <c r="B615">
+        <v>0.6113141079772222</v>
+      </c>
+      <c r="C615">
+        <v>0.7241802320678805</v>
+      </c>
+      <c r="D615">
+        <v>0.6496780532032637</v>
+      </c>
+      <c r="E615">
+        <v>0.6957595563615904</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="A616" s="1">
+        <v>614</v>
+      </c>
+      <c r="B616">
+        <v>0.6167691501007777</v>
+      </c>
+      <c r="C616">
+        <v>0.727953895336646</v>
+      </c>
+      <c r="D616">
+        <v>0.6594876078777698</v>
+      </c>
+      <c r="E616">
+        <v>0.6997266989145965</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5">
+      <c r="A617" s="1">
+        <v>615</v>
+      </c>
+      <c r="B617">
+        <v>0.6139894784293385</v>
+      </c>
+      <c r="C617">
+        <v>0.7280374300506557</v>
+      </c>
+      <c r="D617">
+        <v>0.6476400646178324</v>
+      </c>
+      <c r="E617">
+        <v>0.6986066442003873</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" s="1">
+        <v>616</v>
+      </c>
+      <c r="B618">
+        <v>0.6112220721138724</v>
+      </c>
+      <c r="C618">
+        <v>0.7247160662399627</v>
+      </c>
+      <c r="D618">
+        <v>0.6484599064079125</v>
+      </c>
+      <c r="E618">
+        <v>0.6946099887800369</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" s="1">
+        <v>617</v>
+      </c>
+      <c r="B619">
+        <v>0.6224157026390347</v>
+      </c>
+      <c r="C619">
+        <v>0.7344083745134868</v>
+      </c>
+      <c r="D619">
+        <v>0.6454928688950836</v>
+      </c>
+      <c r="E619">
+        <v>0.7070416878605927</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5">
+      <c r="A620" s="1">
+        <v>618</v>
+      </c>
+      <c r="B620">
+        <v>0.6133198814813449</v>
+      </c>
+      <c r="C620">
+        <v>0.729485940497222</v>
+      </c>
+      <c r="D620">
+        <v>0.6477819903739508</v>
+      </c>
+      <c r="E620">
+        <v>0.6969032422604999</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="A621" s="1">
+        <v>619</v>
+      </c>
+      <c r="B621">
+        <v>0.6132210496543908</v>
+      </c>
+      <c r="C621">
+        <v>0.7282286075841685</v>
+      </c>
+      <c r="D621">
+        <v>0.6700686934611875</v>
+      </c>
+      <c r="E621">
+        <v>0.6991975590695068</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="A622" s="1">
+        <v>620</v>
+      </c>
+      <c r="B622">
+        <v>0.6188141315321321</v>
+      </c>
+      <c r="C622">
+        <v>0.7395586067178288</v>
+      </c>
+      <c r="D622">
+        <v>0.6582961842845091</v>
+      </c>
+      <c r="E622">
+        <v>0.7092853459312635</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="A623" s="1">
+        <v>621</v>
+      </c>
+      <c r="B623">
+        <v>0.6206723530376681</v>
+      </c>
+      <c r="C623">
+        <v>0.7324698399216576</v>
+      </c>
+      <c r="D623">
+        <v>0.6508097416914471</v>
+      </c>
+      <c r="E623">
+        <v>0.7033529390517196</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="A624" s="1">
+        <v>622</v>
+      </c>
+      <c r="B624">
+        <v>0.6170160778989536</v>
+      </c>
+      <c r="C624">
+        <v>0.7289362441643698</v>
+      </c>
+      <c r="D624">
+        <v>0.6590793242383209</v>
+      </c>
+      <c r="E624">
+        <v>0.6970560131531887</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
+      <c r="A625" s="1">
+        <v>623</v>
+      </c>
+      <c r="B625">
+        <v>0.6171777099493991</v>
+      </c>
+      <c r="C625">
+        <v>0.7371748337234713</v>
+      </c>
+      <c r="D625">
+        <v>0.6472869171808735</v>
+      </c>
+      <c r="E625">
+        <v>0.7034035702392001</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5">
+      <c r="A626" s="1">
+        <v>624</v>
+      </c>
+      <c r="B626">
+        <v>0.617402127206655</v>
+      </c>
+      <c r="C626">
+        <v>0.7241732995382322</v>
+      </c>
+      <c r="D626">
+        <v>0.6482654889105167</v>
+      </c>
+      <c r="E626">
+        <v>0.6935560749747371</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="A627" s="1">
+        <v>625</v>
+      </c>
+      <c r="B627">
+        <v>0.6120310326681969</v>
+      </c>
+      <c r="C627">
+        <v>0.7274619516522201</v>
+      </c>
+      <c r="D627">
+        <v>0.6509119855983359</v>
+      </c>
+      <c r="E627">
+        <v>0.6983764691283456</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
+      <c r="A628" s="1">
+        <v>626</v>
+      </c>
+      <c r="B628">
+        <v>0.6248038921163886</v>
+      </c>
+      <c r="C628">
+        <v>0.7344701533137806</v>
+      </c>
+      <c r="D628">
+        <v>0.6615459546924978</v>
+      </c>
+      <c r="E628">
+        <v>0.7107545730369672</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="A629" s="1">
+        <v>627</v>
+      </c>
+      <c r="B629">
+        <v>0.6162411896166409</v>
+      </c>
+      <c r="C629">
+        <v>0.7344736691307088</v>
+      </c>
+      <c r="D629">
+        <v>0.6518115007735946</v>
+      </c>
+      <c r="E629">
+        <v>0.6968236060970717</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="A630" s="1">
+        <v>628</v>
+      </c>
+      <c r="B630">
+        <v>0.6208910555761804</v>
+      </c>
+      <c r="C630">
+        <v>0.7281520270539205</v>
+      </c>
+      <c r="D630">
+        <v>0.6657079762894649</v>
+      </c>
+      <c r="E630">
+        <v>0.705465855859572</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="A631" s="1">
+        <v>629</v>
+      </c>
+      <c r="B631">
+        <v>0.6155682363060091</v>
+      </c>
+      <c r="C631">
+        <v>0.7323091036246465</v>
+      </c>
+      <c r="D631">
+        <v>0.6469486784030088</v>
+      </c>
+      <c r="E631">
+        <v>0.699856981126771</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="A632" s="1">
+        <v>630</v>
+      </c>
+      <c r="B632">
+        <v>0.6101891222377429</v>
+      </c>
+      <c r="C632">
+        <v>0.7287294175296164</v>
+      </c>
+      <c r="D632">
+        <v>0.6526088626917026</v>
+      </c>
+      <c r="E632">
+        <v>0.6965374103804498</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="A633" s="1">
+        <v>631</v>
+      </c>
+      <c r="B633">
+        <v>0.6157696159073027</v>
+      </c>
+      <c r="C633">
+        <v>0.7235066638056409</v>
+      </c>
+      <c r="D633">
+        <v>0.6630298261926901</v>
+      </c>
+      <c r="E633">
+        <v>0.6978846291395465</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
+      <c r="A634" s="1">
+        <v>632</v>
+      </c>
+      <c r="B634">
+        <v>0.6139696465498246</v>
+      </c>
+      <c r="C634">
+        <v>0.7354342214927544</v>
+      </c>
+      <c r="D634">
+        <v>0.6531085022869589</v>
+      </c>
+      <c r="E634">
+        <v>0.7058096591222668</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="A635" s="1">
+        <v>633</v>
+      </c>
+      <c r="B635">
+        <v>0.6160601663897572</v>
+      </c>
+      <c r="C635">
+        <v>0.7335326470861959</v>
+      </c>
+      <c r="D635">
+        <v>0.6534365602815779</v>
+      </c>
+      <c r="E635">
+        <v>0.6967623720533558</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5">
+      <c r="A636" s="1">
+        <v>634</v>
+      </c>
+      <c r="B636">
+        <v>0.616218981629493</v>
+      </c>
+      <c r="C636">
+        <v>0.7357881731788732</v>
+      </c>
+      <c r="D636">
+        <v>0.6625511417294413</v>
+      </c>
+      <c r="E636">
+        <v>0.7053713364694858</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" s="1">
+        <v>635</v>
+      </c>
+      <c r="B637">
+        <v>0.6099654397577194</v>
+      </c>
+      <c r="C637">
+        <v>0.7290276396301386</v>
+      </c>
+      <c r="D637">
+        <v>0.6606806806223164</v>
+      </c>
+      <c r="E637">
+        <v>0.6982419785442621</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="A638" s="1">
+        <v>636</v>
+      </c>
+      <c r="B638">
+        <v>0.6173956536430083</v>
+      </c>
+      <c r="C638">
+        <v>0.721518883415435</v>
+      </c>
+      <c r="D638">
+        <v>0.6432152193629849</v>
+      </c>
+      <c r="E638">
+        <v>0.688995393999751</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="A639" s="1">
+        <v>637</v>
+      </c>
+      <c r="B639">
+        <v>0.617182889196325</v>
+      </c>
+      <c r="C639">
+        <v>0.7239716872480744</v>
+      </c>
+      <c r="D639">
+        <v>0.6452782750757606</v>
+      </c>
+      <c r="E639">
+        <v>0.6959725181269352</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="A640" s="1">
+        <v>638</v>
+      </c>
+      <c r="B640">
+        <v>0.6099938030202648</v>
+      </c>
+      <c r="C640">
+        <v>0.7261975221716445</v>
+      </c>
+      <c r="D640">
+        <v>0.646283099850717</v>
+      </c>
+      <c r="E640">
+        <v>0.6954047958877606</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5">
+      <c r="A641" s="1">
+        <v>639</v>
+      </c>
+      <c r="B641">
+        <v>0.6153613002136371</v>
+      </c>
+      <c r="C641">
+        <v>0.7288052901482629</v>
+      </c>
+      <c r="D641">
+        <v>0.651403795521506</v>
+      </c>
+      <c r="E641">
+        <v>0.7014042484535432</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5">
+      <c r="A642" s="1">
+        <v>640</v>
+      </c>
+      <c r="B642">
+        <v>0.6133677807003328</v>
+      </c>
+      <c r="C642">
+        <v>0.7278800245865407</v>
+      </c>
+      <c r="D642">
+        <v>0.6644486199797286</v>
+      </c>
+      <c r="E642">
+        <v>0.7040476695047309</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5">
+      <c r="A643" s="1">
+        <v>641</v>
+      </c>
+      <c r="B643">
+        <v>0.6144697776165462</v>
+      </c>
+      <c r="C643">
+        <v>0.723233334263209</v>
+      </c>
+      <c r="D643">
+        <v>0.6518020363560685</v>
+      </c>
+      <c r="E643">
+        <v>0.6899098054435241</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5">
+      <c r="A644" s="1">
+        <v>642</v>
+      </c>
+      <c r="B644">
+        <v>0.6170246878872807</v>
+      </c>
+      <c r="C644">
+        <v>0.7264960944359165</v>
+      </c>
+      <c r="D644">
+        <v>0.6558000033986054</v>
+      </c>
+      <c r="E644">
+        <v>0.6991726780742548</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5">
+      <c r="A645" s="1">
+        <v>643</v>
+      </c>
+      <c r="B645">
+        <v>0.618029957924603</v>
+      </c>
+      <c r="C645">
+        <v>0.7353731280078162</v>
+      </c>
+      <c r="D645">
+        <v>0.6571088061900139</v>
+      </c>
+      <c r="E645">
+        <v>0.7053472959524738</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5">
+      <c r="A646" s="1">
+        <v>644</v>
+      </c>
+      <c r="B646">
+        <v>0.6139846920134803</v>
+      </c>
+      <c r="C646">
+        <v>0.7351085304040178</v>
+      </c>
+      <c r="D646">
+        <v>0.6486674595201116</v>
+      </c>
+      <c r="E646">
+        <v>0.6962656423502039</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5">
+      <c r="A647" s="1">
+        <v>645</v>
+      </c>
+      <c r="B647">
+        <v>0.6142909970149183</v>
+      </c>
+      <c r="C647">
+        <v>0.7324447349662402</v>
+      </c>
+      <c r="D647">
+        <v>0.6592060134444608</v>
+      </c>
+      <c r="E647">
+        <v>0.69745227644437</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5">
+      <c r="A648" s="1">
+        <v>646</v>
+      </c>
+      <c r="B648">
+        <v>0.6083772197588994</v>
+      </c>
+      <c r="C648">
+        <v>0.7268419449343928</v>
+      </c>
+      <c r="D648">
+        <v>0.643145052852049</v>
+      </c>
+      <c r="E648">
+        <v>0.6965857563768064</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5">
+      <c r="A649" s="1">
+        <v>647</v>
+      </c>
+      <c r="B649">
+        <v>0.6157706202992386</v>
+      </c>
+      <c r="C649">
+        <v>0.7269096748499781</v>
+      </c>
+      <c r="D649">
+        <v>0.6592403809458672</v>
+      </c>
+      <c r="E649">
+        <v>0.6999703387908534</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5">
+      <c r="A650" s="1">
+        <v>648</v>
+      </c>
+      <c r="B650">
+        <v>0.6141892010807413</v>
+      </c>
+      <c r="C650">
+        <v>0.7297631762419043</v>
+      </c>
+      <c r="D650">
+        <v>0.6536771265943837</v>
+      </c>
+      <c r="E650">
+        <v>0.7007624786891414</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5">
+      <c r="A651" s="1">
+        <v>649</v>
+      </c>
+      <c r="B651">
+        <v>0.6113847198074289</v>
+      </c>
+      <c r="C651">
+        <v>0.7290769365338589</v>
+      </c>
+      <c r="D651">
+        <v>0.6601291942881549</v>
+      </c>
+      <c r="E651">
+        <v>0.6947496938547136</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5">
+      <c r="A652" s="1">
+        <v>650</v>
+      </c>
+      <c r="B652">
+        <v>0.6109518486053621</v>
+      </c>
+      <c r="C652">
+        <v>0.7319426960795675</v>
+      </c>
+      <c r="D652">
+        <v>0.6529687427755433</v>
+      </c>
+      <c r="E652">
+        <v>0.6962418201705072</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5">
+      <c r="A653" s="1">
+        <v>651</v>
+      </c>
+      <c r="B653">
+        <v>0.6136280789875255</v>
+      </c>
+      <c r="C653">
+        <v>0.7320611952305704</v>
+      </c>
+      <c r="D653">
+        <v>0.6563919299900212</v>
+      </c>
+      <c r="E653">
+        <v>0.7048788045957621</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5">
+      <c r="A654" s="1">
+        <v>652</v>
+      </c>
+      <c r="B654">
+        <v>0.6175892897983675</v>
+      </c>
+      <c r="C654">
+        <v>0.7283634223449591</v>
+      </c>
+      <c r="D654">
+        <v>0.6587914083444115</v>
+      </c>
+      <c r="E654">
+        <v>0.6976952445694851</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5">
+      <c r="A655" s="1">
+        <v>653</v>
+      </c>
+      <c r="B655">
+        <v>0.6137654556772204</v>
+      </c>
+      <c r="C655">
+        <v>0.7215558950853068</v>
+      </c>
+      <c r="D655">
+        <v>0.650625742721331</v>
+      </c>
+      <c r="E655">
+        <v>0.6953066201227966</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5">
+      <c r="A656" s="1">
+        <v>654</v>
+      </c>
+      <c r="B656">
+        <v>0.6118517597011892</v>
+      </c>
+      <c r="C656">
+        <v>0.7287302357899466</v>
+      </c>
+      <c r="D656">
+        <v>0.6603875620879137</v>
+      </c>
+      <c r="E656">
+        <v>0.6998071747382218</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="A657" s="1">
+        <v>655</v>
+      </c>
+      <c r="B657">
+        <v>0.620280534847269</v>
+      </c>
+      <c r="C657">
+        <v>0.7308138491223077</v>
+      </c>
+      <c r="D657">
+        <v>0.6647054807734214</v>
+      </c>
+      <c r="E657">
+        <v>0.7069854237570178</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5">
+      <c r="A658" s="1">
+        <v>656</v>
+      </c>
+      <c r="B658">
+        <v>0.6171539128479947</v>
+      </c>
+      <c r="C658">
+        <v>0.7316041185339344</v>
+      </c>
+      <c r="D658">
+        <v>0.658837433998677</v>
+      </c>
+      <c r="E658">
+        <v>0.7057662916174324</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" s="1">
+        <v>657</v>
+      </c>
+      <c r="B659">
+        <v>0.6193328040215994</v>
+      </c>
+      <c r="C659">
+        <v>0.7280219678991442</v>
+      </c>
+      <c r="D659">
+        <v>0.6636023318960035</v>
+      </c>
+      <c r="E659">
+        <v>0.7011568824416186</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5">
+      <c r="A660" s="1">
+        <v>658</v>
+      </c>
+      <c r="B660">
+        <v>0.617228737522548</v>
+      </c>
+      <c r="C660">
+        <v>0.730042924503008</v>
+      </c>
+      <c r="D660">
+        <v>0.6562699770239251</v>
+      </c>
+      <c r="E660">
+        <v>0.7004016039512285</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5">
+      <c r="A661" s="1">
+        <v>659</v>
+      </c>
+      <c r="B661">
+        <v>0.6177758097347911</v>
+      </c>
+      <c r="C661">
+        <v>0.7233505983771993</v>
+      </c>
+      <c r="D661">
+        <v>0.6585202308481671</v>
+      </c>
+      <c r="E661">
+        <v>0.6971700681511106</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5">
+      <c r="A662" s="1">
+        <v>660</v>
+      </c>
+      <c r="B662">
+        <v>0.6129775534366284</v>
+      </c>
+      <c r="C662">
+        <v>0.7330807476737391</v>
+      </c>
+      <c r="D662">
+        <v>0.6644357776357982</v>
+      </c>
+      <c r="E662">
+        <v>0.6998974719228708</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="A663" s="1">
+        <v>661</v>
+      </c>
+      <c r="B663">
+        <v>0.6134686818685831</v>
+      </c>
+      <c r="C663">
+        <v>0.7320783542590454</v>
+      </c>
+      <c r="D663">
+        <v>0.647342006561753</v>
+      </c>
+      <c r="E663">
+        <v>0.6947444887103802</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5">
+      <c r="A664" s="1">
+        <v>662</v>
+      </c>
+      <c r="B664">
+        <v>0.6205184257191447</v>
+      </c>
+      <c r="C664">
+        <v>0.7295150425767563</v>
+      </c>
+      <c r="D664">
+        <v>0.664174882437315</v>
+      </c>
+      <c r="E664">
+        <v>0.6973308277502406</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5">
+      <c r="A665" s="1">
+        <v>663</v>
+      </c>
+      <c r="B665">
+        <v>0.6200554711054749</v>
+      </c>
+      <c r="C665">
+        <v>0.7340329659254923</v>
+      </c>
+      <c r="D665">
+        <v>0.6424165893818454</v>
+      </c>
+      <c r="E665">
+        <v>0.6991538661806821</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5">
+      <c r="A666" s="1">
+        <v>664</v>
+      </c>
+      <c r="B666">
+        <v>0.6152612760460985</v>
+      </c>
+      <c r="C666">
+        <v>0.7280922780500489</v>
+      </c>
+      <c r="D666">
+        <v>0.6515039727650119</v>
+      </c>
+      <c r="E666">
+        <v>0.6933509905978771</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" s="1">
+        <v>665</v>
+      </c>
+      <c r="B667">
+        <v>0.6189104027887694</v>
+      </c>
+      <c r="C667">
+        <v>0.7268465887480935</v>
+      </c>
+      <c r="D667">
+        <v>0.6536756671458397</v>
+      </c>
+      <c r="E667">
+        <v>0.7048088731835995</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5">
+      <c r="A668" s="1">
+        <v>666</v>
+      </c>
+      <c r="B668">
+        <v>0.6222432533678991</v>
+      </c>
+      <c r="C668">
+        <v>0.7327283521779033</v>
+      </c>
+      <c r="D668">
+        <v>0.6590173698752031</v>
+      </c>
+      <c r="E668">
+        <v>0.7060403579713926</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5">
+      <c r="A669" s="1">
+        <v>667</v>
+      </c>
+      <c r="B669">
+        <v>0.61359167212629</v>
+      </c>
+      <c r="C669">
+        <v>0.7272585042652405</v>
+      </c>
+      <c r="D669">
+        <v>0.6491878148903891</v>
+      </c>
+      <c r="E669">
+        <v>0.7000880995604403</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5">
+      <c r="A670" s="1">
+        <v>668</v>
+      </c>
+      <c r="B670">
+        <v>0.6218980246775049</v>
+      </c>
+      <c r="C670">
+        <v>0.7330431642515789</v>
+      </c>
+      <c r="D670">
+        <v>0.6563961260917747</v>
+      </c>
+      <c r="E670">
+        <v>0.7072176156736449</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5">
+      <c r="A671" s="1">
+        <v>669</v>
+      </c>
+      <c r="B671">
+        <v>0.6118260593803573</v>
+      </c>
+      <c r="C671">
+        <v>0.7300616104998966</v>
+      </c>
+      <c r="D671">
+        <v>0.6489232226122977</v>
+      </c>
+      <c r="E671">
+        <v>0.6992276836244118</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5">
+      <c r="A672" s="1">
+        <v>670</v>
+      </c>
+      <c r="B672">
+        <v>0.6123439068994481</v>
+      </c>
+      <c r="C672">
+        <v>0.730392860053549</v>
+      </c>
+      <c r="D672">
+        <v>0.6449418512507146</v>
+      </c>
+      <c r="E672">
+        <v>0.6968091943320945</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5">
+      <c r="A673" s="1">
+        <v>671</v>
+      </c>
+      <c r="B673">
+        <v>0.6060636474534846</v>
+      </c>
+      <c r="C673">
+        <v>0.7284935221770654</v>
+      </c>
+      <c r="D673">
+        <v>0.6531823606651403</v>
+      </c>
+      <c r="E673">
+        <v>0.6949888831859058</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5">
+      <c r="A674" s="1">
+        <v>672</v>
+      </c>
+      <c r="B674">
+        <v>0.6208380124113666</v>
+      </c>
+      <c r="C674">
+        <v>0.7286251941892129</v>
+      </c>
+      <c r="D674">
+        <v>0.6598899265579088</v>
+      </c>
+      <c r="E674">
+        <v>0.7033091994560908</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5">
+      <c r="A675" s="1">
+        <v>673</v>
+      </c>
+      <c r="B675">
+        <v>0.6157667658226318</v>
+      </c>
+      <c r="C675">
+        <v>0.7310811627850734</v>
+      </c>
+      <c r="D675">
+        <v>0.6512158697912888</v>
+      </c>
+      <c r="E675">
+        <v>0.6960076422646255</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5">
+      <c r="A676" s="1">
+        <v>674</v>
+      </c>
+      <c r="B676">
+        <v>0.6144006949151218</v>
+      </c>
+      <c r="C676">
+        <v>0.7379206553521795</v>
+      </c>
+      <c r="D676">
+        <v>0.6603710991290488</v>
+      </c>
+      <c r="E676">
+        <v>0.7048475164023602</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5">
+      <c r="A677" s="1">
+        <v>675</v>
+      </c>
+      <c r="B677">
+        <v>0.6069488767598864</v>
+      </c>
+      <c r="C677">
+        <v>0.7243194720375156</v>
+      </c>
+      <c r="D677">
+        <v>0.658837387125858</v>
+      </c>
+      <c r="E677">
+        <v>0.6959559150175277</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5">
+      <c r="A678" s="1">
+        <v>676</v>
+      </c>
+      <c r="B678">
+        <v>0.6039512334224474</v>
+      </c>
+      <c r="C678">
+        <v>0.7249076400548684</v>
+      </c>
+      <c r="D678">
+        <v>0.6521714235044977</v>
+      </c>
+      <c r="E678">
+        <v>0.6924559219319285</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5">
+      <c r="A679" s="1">
+        <v>677</v>
+      </c>
+      <c r="B679">
+        <v>0.61367291136499</v>
+      </c>
+      <c r="C679">
+        <v>0.7270439655639179</v>
+      </c>
+      <c r="D679">
+        <v>0.6518964210298337</v>
+      </c>
+      <c r="E679">
+        <v>0.6942362878336672</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5">
+      <c r="A680" s="1">
+        <v>678</v>
+      </c>
+      <c r="B680">
+        <v>0.6179913217074943</v>
+      </c>
+      <c r="C680">
+        <v>0.7362534806962854</v>
+      </c>
+      <c r="D680">
+        <v>0.6630685396803568</v>
+      </c>
+      <c r="E680">
+        <v>0.7020131079973541</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5">
+      <c r="A681" s="1">
+        <v>679</v>
+      </c>
+      <c r="B681">
+        <v>0.6085630665153894</v>
+      </c>
+      <c r="C681">
+        <v>0.7301532065884674</v>
+      </c>
+      <c r="D681">
+        <v>0.6612478545944571</v>
+      </c>
+      <c r="E681">
+        <v>0.6978141496169984</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5">
+      <c r="A682" s="1">
+        <v>680</v>
+      </c>
+      <c r="B682">
+        <v>0.6116052800223575</v>
+      </c>
+      <c r="C682">
+        <v>0.7296045403952067</v>
+      </c>
+      <c r="D682">
+        <v>0.6555847872909408</v>
+      </c>
+      <c r="E682">
+        <v>0.6973779374280248</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5">
+      <c r="A683" s="1">
+        <v>681</v>
+      </c>
+      <c r="B683">
+        <v>0.6119996966034735</v>
+      </c>
+      <c r="C683">
+        <v>0.7290013264204952</v>
+      </c>
+      <c r="D683">
+        <v>0.6388034705556842</v>
+      </c>
+      <c r="E683">
+        <v>0.6957478812437426</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5">
+      <c r="A684" s="1">
+        <v>682</v>
+      </c>
+      <c r="B684">
+        <v>0.6203675344563553</v>
+      </c>
+      <c r="C684">
+        <v>0.7358663301344561</v>
+      </c>
+      <c r="D684">
+        <v>0.6482179526679487</v>
+      </c>
+      <c r="E684">
+        <v>0.7082833366470525</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5">
+      <c r="A685" s="1">
+        <v>683</v>
+      </c>
+      <c r="B685">
+        <v>0.6147334194095769</v>
+      </c>
+      <c r="C685">
+        <v>0.7339290747986323</v>
+      </c>
+      <c r="D685">
+        <v>0.6540374366765761</v>
+      </c>
+      <c r="E685">
+        <v>0.702300381533537</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5">
+      <c r="A686" s="1">
+        <v>684</v>
+      </c>
+      <c r="B686">
+        <v>0.6234726632964868</v>
+      </c>
+      <c r="C686">
+        <v>0.7330311623752451</v>
+      </c>
+      <c r="D686">
+        <v>0.6483915704468963</v>
+      </c>
+      <c r="E686">
+        <v>0.7020808702327617</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5">
+      <c r="A687" s="1">
+        <v>685</v>
+      </c>
+      <c r="B687">
+        <v>0.6172175141072889</v>
+      </c>
+      <c r="C687">
+        <v>0.729018334960673</v>
+      </c>
+      <c r="D687">
+        <v>0.6575877770139381</v>
+      </c>
+      <c r="E687">
+        <v>0.6975467102657239</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5">
+      <c r="A688" s="1">
+        <v>686</v>
+      </c>
+      <c r="B688">
+        <v>0.6124072473939545</v>
+      </c>
+      <c r="C688">
+        <v>0.7310363094879602</v>
+      </c>
+      <c r="D688">
+        <v>0.6584031372105571</v>
+      </c>
+      <c r="E688">
+        <v>0.7000951954856813</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5">
+      <c r="A689" s="1">
+        <v>687</v>
+      </c>
+      <c r="B689">
+        <v>0.6148783252573083</v>
+      </c>
+      <c r="C689">
+        <v>0.7290801538740059</v>
+      </c>
+      <c r="D689">
+        <v>0.6456759808437478</v>
+      </c>
+      <c r="E689">
+        <v>0.6928940685038141</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5">
+      <c r="A690" s="1">
+        <v>688</v>
+      </c>
+      <c r="B690">
+        <v>0.6183518716920324</v>
+      </c>
+      <c r="C690">
+        <v>0.7350388418888073</v>
+      </c>
+      <c r="D690">
+        <v>0.6708224712604178</v>
+      </c>
+      <c r="E690">
+        <v>0.706731337303601</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5">
+      <c r="A691" s="1">
+        <v>689</v>
+      </c>
+      <c r="B691">
+        <v>0.6162558724095539</v>
+      </c>
+      <c r="C691">
+        <v>0.7285234099395244</v>
+      </c>
+      <c r="D691">
+        <v>0.6531289252798521</v>
+      </c>
+      <c r="E691">
+        <v>0.6973925403933965</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5">
+      <c r="A692" s="1">
+        <v>690</v>
+      </c>
+      <c r="B692">
+        <v>0.6199588466201595</v>
+      </c>
+      <c r="C692">
+        <v>0.7348524392692231</v>
+      </c>
+      <c r="D692">
+        <v>0.6682034373261035</v>
+      </c>
+      <c r="E692">
+        <v>0.7106327166355273</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5">
+      <c r="A693" s="1">
+        <v>691</v>
+      </c>
+      <c r="B693">
+        <v>0.6105554227380853</v>
+      </c>
+      <c r="C693">
+        <v>0.7300020022233644</v>
+      </c>
+      <c r="D693">
+        <v>0.655980551537827</v>
+      </c>
+      <c r="E693">
+        <v>0.6959798044395568</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5">
+      <c r="A694" s="1">
+        <v>692</v>
+      </c>
+      <c r="B694">
+        <v>0.6114926766514943</v>
+      </c>
+      <c r="C694">
+        <v>0.7255540715792734</v>
+      </c>
+      <c r="D694">
+        <v>0.6682860371728614</v>
+      </c>
+      <c r="E694">
+        <v>0.7004697603849802</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5">
+      <c r="A695" s="1">
+        <v>693</v>
+      </c>
+      <c r="B695">
+        <v>0.6159545039065972</v>
+      </c>
+      <c r="C695">
+        <v>0.7362501222436425</v>
+      </c>
+      <c r="D695">
+        <v>0.6578873341280748</v>
+      </c>
+      <c r="E695">
+        <v>0.709474932675084</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5">
+      <c r="A696" s="1">
+        <v>694</v>
+      </c>
+      <c r="B696">
+        <v>0.620285128969978</v>
+      </c>
+      <c r="C696">
+        <v>0.7279724825216892</v>
+      </c>
+      <c r="D696">
+        <v>0.6595621542292642</v>
+      </c>
+      <c r="E696">
+        <v>0.7033279926057341</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5">
+      <c r="A697" s="1">
+        <v>695</v>
+      </c>
+      <c r="B697">
+        <v>0.6153630691540233</v>
+      </c>
+      <c r="C697">
+        <v>0.7308354299826681</v>
+      </c>
+      <c r="D697">
+        <v>0.6629914428024799</v>
+      </c>
+      <c r="E697">
+        <v>0.7046343793126216</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5">
+      <c r="A698" s="1">
+        <v>696</v>
+      </c>
+      <c r="B698">
+        <v>0.615155090522211</v>
+      </c>
+      <c r="C698">
+        <v>0.7317587937593342</v>
+      </c>
+      <c r="D698">
+        <v>0.6503476927855431</v>
+      </c>
+      <c r="E698">
+        <v>0.7028755909460733</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5">
+      <c r="A699" s="1">
+        <v>697</v>
+      </c>
+      <c r="B699">
+        <v>0.6143535184540049</v>
+      </c>
+      <c r="C699">
+        <v>0.7271245414156011</v>
+      </c>
+      <c r="D699">
+        <v>0.6645595797725392</v>
+      </c>
+      <c r="E699">
+        <v>0.7018028214917368</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5">
+      <c r="A700" s="1">
+        <v>698</v>
+      </c>
+      <c r="B700">
+        <v>0.6215069601477086</v>
+      </c>
+      <c r="C700">
+        <v>0.7268764392257743</v>
+      </c>
+      <c r="D700">
+        <v>0.6534188743439204</v>
+      </c>
+      <c r="E700">
+        <v>0.6956984005144908</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5">
+      <c r="A701" s="1">
+        <v>699</v>
+      </c>
+      <c r="B701">
+        <v>0.6195987645107776</v>
+      </c>
+      <c r="C701">
+        <v>0.730080464650551</v>
+      </c>
+      <c r="D701">
+        <v>0.6667657017053887</v>
+      </c>
+      <c r="E701">
+        <v>0.7064094585516723</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5">
+      <c r="A702" s="1">
+        <v>700</v>
+      </c>
+      <c r="B702">
+        <v>0.6167603969520333</v>
+      </c>
+      <c r="C702">
+        <v>0.7329760513046194</v>
+      </c>
+      <c r="D702">
+        <v>0.6568809188897798</v>
+      </c>
+      <c r="E702">
+        <v>0.6977232045228126</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5">
+      <c r="A703" s="1">
+        <v>701</v>
+      </c>
+      <c r="B703">
+        <v>0.6172367200944194</v>
+      </c>
+      <c r="C703">
+        <v>0.731712913943422</v>
+      </c>
+      <c r="D703">
+        <v>0.6692895099039013</v>
+      </c>
+      <c r="E703">
+        <v>0.7068613116528972</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5">
+      <c r="A704" s="1">
+        <v>702</v>
+      </c>
+      <c r="B704">
+        <v>0.6164990348673178</v>
+      </c>
+      <c r="C704">
+        <v>0.7223369840001698</v>
+      </c>
+      <c r="D704">
+        <v>0.6490314359225231</v>
+      </c>
+      <c r="E704">
+        <v>0.6897894462101958</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5">
+      <c r="A705" s="1">
+        <v>703</v>
+      </c>
+      <c r="B705">
+        <v>0.6189936384794603</v>
+      </c>
+      <c r="C705">
+        <v>0.7308206229626688</v>
+      </c>
+      <c r="D705">
+        <v>0.6440206550245913</v>
+      </c>
+      <c r="E705">
+        <v>0.7001409302588163</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5">
+      <c r="A706" s="1">
+        <v>704</v>
+      </c>
+      <c r="B706">
+        <v>0.618749102827994</v>
+      </c>
+      <c r="C706">
+        <v>0.7301023343509817</v>
+      </c>
+      <c r="D706">
+        <v>0.660683753313136</v>
+      </c>
+      <c r="E706">
+        <v>0.7025234839731919</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5">
+      <c r="A707" s="1">
+        <v>705</v>
+      </c>
+      <c r="B707">
+        <v>0.6135761308056031</v>
+      </c>
+      <c r="C707">
+        <v>0.7274230941732611</v>
+      </c>
+      <c r="D707">
+        <v>0.6556934618440162</v>
+      </c>
+      <c r="E707">
+        <v>0.6981776685883387</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5">
+      <c r="A708" s="1">
+        <v>706</v>
+      </c>
+      <c r="B708">
+        <v>0.6126063206146547</v>
+      </c>
+      <c r="C708">
+        <v>0.7213189836990669</v>
+      </c>
+      <c r="D708">
+        <v>0.6620093492264036</v>
+      </c>
+      <c r="E708">
+        <v>0.6960854983513521</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5">
+      <c r="A709" s="1">
+        <v>707</v>
+      </c>
+      <c r="B709">
+        <v>0.615215544187439</v>
+      </c>
+      <c r="C709">
+        <v>0.7326515765190671</v>
+      </c>
+      <c r="D709">
+        <v>0.669344092932886</v>
+      </c>
+      <c r="E709">
+        <v>0.7068671324463854</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5">
+      <c r="A710" s="1">
+        <v>708</v>
+      </c>
+      <c r="B710">
+        <v>0.6156152281950757</v>
+      </c>
+      <c r="C710">
+        <v>0.7352070496464413</v>
+      </c>
+      <c r="D710">
+        <v>0.6711700024119325</v>
+      </c>
+      <c r="E710">
+        <v>0.7022042646548037</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5">
+      <c r="A711" s="1">
+        <v>709</v>
+      </c>
+      <c r="B711">
+        <v>0.6151818148358009</v>
+      </c>
+      <c r="C711">
+        <v>0.7372406697201908</v>
+      </c>
+      <c r="D711">
+        <v>0.6538291480486704</v>
+      </c>
+      <c r="E711">
+        <v>0.7051290855019704</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5">
+      <c r="A712" s="1">
+        <v>710</v>
+      </c>
+      <c r="B712">
+        <v>0.6146897937379801</v>
+      </c>
+      <c r="C712">
+        <v>0.7258238922914916</v>
+      </c>
+      <c r="D712">
+        <v>0.6604926887602354</v>
+      </c>
+      <c r="E712">
+        <v>0.6999693052982375</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5">
+      <c r="A713" s="1">
+        <v>711</v>
+      </c>
+      <c r="B713">
+        <v>0.6187772587664382</v>
+      </c>
+      <c r="C713">
+        <v>0.7285673650791844</v>
+      </c>
+      <c r="D713">
+        <v>0.6558033546186476</v>
+      </c>
+      <c r="E713">
+        <v>0.6970969769447037</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5">
+      <c r="A714" s="1">
+        <v>712</v>
+      </c>
+      <c r="B714">
+        <v>0.6151257293881569</v>
+      </c>
+      <c r="C714">
+        <v>0.7352538515501368</v>
+      </c>
+      <c r="D714">
+        <v>0.6608698548565152</v>
+      </c>
+      <c r="E714">
+        <v>0.7025754947331786</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5">
+      <c r="A715" s="1">
+        <v>713</v>
+      </c>
+      <c r="B715">
+        <v>0.6164711046889148</v>
+      </c>
+      <c r="C715">
+        <v>0.7272056738885891</v>
+      </c>
+      <c r="D715">
+        <v>0.6657562288700085</v>
+      </c>
+      <c r="E715">
+        <v>0.7029352587728525</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5">
+      <c r="A716" s="1">
+        <v>714</v>
+      </c>
+      <c r="B716">
+        <v>0.6124381597912041</v>
+      </c>
+      <c r="C716">
+        <v>0.732028358848506</v>
+      </c>
+      <c r="D716">
+        <v>0.6554111643488761</v>
+      </c>
+      <c r="E716">
+        <v>0.6994764520275798</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5">
+      <c r="A717" s="1">
+        <v>715</v>
+      </c>
+      <c r="B717">
+        <v>0.6229912195807616</v>
+      </c>
+      <c r="C717">
+        <v>0.7296354956464844</v>
+      </c>
+      <c r="D717">
+        <v>0.6523740575012815</v>
+      </c>
+      <c r="E717">
+        <v>0.7010120592265041</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5">
+      <c r="A718" s="1">
+        <v>716</v>
+      </c>
+      <c r="B718">
+        <v>0.6160561683169445</v>
+      </c>
+      <c r="C718">
+        <v>0.7312712337963228</v>
+      </c>
+      <c r="D718">
+        <v>0.6582196749579361</v>
+      </c>
+      <c r="E718">
+        <v>0.7045387862766769</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5">
+      <c r="A719" s="1">
+        <v>717</v>
+      </c>
+      <c r="B719">
+        <v>0.6093603974251072</v>
+      </c>
+      <c r="C719">
+        <v>0.7294681056026873</v>
+      </c>
+      <c r="D719">
+        <v>0.6577767780898729</v>
+      </c>
+      <c r="E719">
+        <v>0.7002677033102473</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5">
+      <c r="A720" s="1">
+        <v>718</v>
+      </c>
+      <c r="B720">
+        <v>0.6094089265629814</v>
+      </c>
+      <c r="C720">
+        <v>0.7265941250264435</v>
+      </c>
+      <c r="D720">
+        <v>0.6633614923334549</v>
+      </c>
+      <c r="E720">
+        <v>0.6998238817653952</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5">
+      <c r="A721" s="1">
+        <v>719</v>
+      </c>
+      <c r="B721">
+        <v>0.6146436527843566</v>
+      </c>
+      <c r="C721">
+        <v>0.7275164947623658</v>
+      </c>
+      <c r="D721">
+        <v>0.6534727793466644</v>
+      </c>
+      <c r="E721">
+        <v>0.6990489215399733</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5">
+      <c r="A722" s="1">
+        <v>720</v>
+      </c>
+      <c r="B722">
+        <v>0.6173785071274611</v>
+      </c>
+      <c r="C722">
+        <v>0.7266946814227149</v>
+      </c>
+      <c r="D722">
+        <v>0.6388686023414057</v>
+      </c>
+      <c r="E722">
+        <v>0.6990612037892373</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5">
+      <c r="A723" s="1">
+        <v>721</v>
+      </c>
+      <c r="B723">
+        <v>0.6183419136486599</v>
+      </c>
+      <c r="C723">
+        <v>0.7259995471500245</v>
+      </c>
+      <c r="D723">
+        <v>0.6629604471297654</v>
+      </c>
+      <c r="E723">
+        <v>0.7019952212410472</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5">
+      <c r="A724" s="1">
+        <v>722</v>
+      </c>
+      <c r="B724">
+        <v>0.616125423439744</v>
+      </c>
+      <c r="C724">
+        <v>0.7250557705628148</v>
+      </c>
+      <c r="D724">
+        <v>0.6556490298093951</v>
+      </c>
+      <c r="E724">
+        <v>0.6977094292458629</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5">
+      <c r="A725" s="1">
+        <v>723</v>
+      </c>
+      <c r="B725">
+        <v>0.6167918894635737</v>
+      </c>
+      <c r="C725">
+        <v>0.7329053792262095</v>
+      </c>
+      <c r="D725">
+        <v>0.6558267919420481</v>
+      </c>
+      <c r="E725">
+        <v>0.700457042891975</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5">
+      <c r="A726" s="1">
+        <v>724</v>
+      </c>
+      <c r="B726">
+        <v>0.6216505012563569</v>
+      </c>
+      <c r="C726">
+        <v>0.7268423606031984</v>
+      </c>
+      <c r="D726">
+        <v>0.6478563526570936</v>
+      </c>
+      <c r="E726">
+        <v>0.6983451740829085</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5">
+      <c r="A727" s="1">
+        <v>725</v>
+      </c>
+      <c r="B727">
+        <v>0.6211976021975151</v>
+      </c>
+      <c r="C727">
+        <v>0.7325131626983196</v>
+      </c>
+      <c r="D727">
+        <v>0.649457002809095</v>
+      </c>
+      <c r="E727">
+        <v>0.7028926656354053</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5">
+      <c r="A728" s="1">
+        <v>726</v>
+      </c>
+      <c r="B728">
+        <v>0.6130166867528274</v>
+      </c>
+      <c r="C728">
+        <v>0.7317753500675375</v>
+      </c>
+      <c r="D728">
+        <v>0.659437860016492</v>
+      </c>
+      <c r="E728">
+        <v>0.7051224311557449</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5">
+      <c r="A729" s="1">
+        <v>727</v>
+      </c>
+      <c r="B729">
+        <v>0.6061157450357137</v>
+      </c>
+      <c r="C729">
+        <v>0.7271047253685319</v>
+      </c>
+      <c r="D729">
+        <v>0.653578808212869</v>
+      </c>
+      <c r="E729">
+        <v>0.690910342668818</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5">
+      <c r="A730" s="1">
+        <v>728</v>
+      </c>
+      <c r="B730">
+        <v>0.6171197643276057</v>
+      </c>
+      <c r="C730">
+        <v>0.7252751321576518</v>
+      </c>
+      <c r="D730">
+        <v>0.648297328162047</v>
+      </c>
+      <c r="E730">
+        <v>0.6959025576983896</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5">
+      <c r="A731" s="1">
+        <v>729</v>
+      </c>
+      <c r="B731">
+        <v>0.613699107421019</v>
+      </c>
+      <c r="C731">
+        <v>0.728228479421036</v>
+      </c>
+      <c r="D731">
+        <v>0.6566277933541589</v>
+      </c>
+      <c r="E731">
+        <v>0.6927891069582244</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5">
+      <c r="A732" s="1">
+        <v>730</v>
+      </c>
+      <c r="B732">
+        <v>0.6185302782915705</v>
+      </c>
+      <c r="C732">
+        <v>0.7301918338082988</v>
+      </c>
+      <c r="D732">
+        <v>0.6557314266434506</v>
+      </c>
+      <c r="E732">
+        <v>0.699939118070576</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5">
+      <c r="A733" s="1">
+        <v>731</v>
+      </c>
+      <c r="B733">
+        <v>0.6156067143989735</v>
+      </c>
+      <c r="C733">
+        <v>0.7241786698261135</v>
+      </c>
+      <c r="D733">
+        <v>0.6528236180868543</v>
+      </c>
+      <c r="E733">
+        <v>0.6939496819336183</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5">
+      <c r="A734" s="1">
+        <v>732</v>
+      </c>
+      <c r="B734">
+        <v>0.6068347255791601</v>
+      </c>
+      <c r="C734">
+        <v>0.7315088375807433</v>
+      </c>
+      <c r="D734">
+        <v>0.6548503335736194</v>
+      </c>
+      <c r="E734">
+        <v>0.6973352096849424</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5">
+      <c r="A735" s="1">
+        <v>733</v>
+      </c>
+      <c r="B735">
+        <v>0.6132365642859958</v>
+      </c>
+      <c r="C735">
+        <v>0.7287427160932525</v>
+      </c>
+      <c r="D735">
+        <v>0.6610458340274924</v>
+      </c>
+      <c r="E735">
+        <v>0.6966765867404286</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5">
+      <c r="A736" s="1">
+        <v>734</v>
+      </c>
+      <c r="B736">
+        <v>0.6131555780439047</v>
+      </c>
+      <c r="C736">
+        <v>0.7315537852932729</v>
+      </c>
+      <c r="D736">
+        <v>0.6592008567557348</v>
+      </c>
+      <c r="E736">
+        <v>0.7008215750577973</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5">
+      <c r="A737" s="1">
+        <v>735</v>
+      </c>
+      <c r="B737">
+        <v>0.6141840335428826</v>
+      </c>
+      <c r="C737">
+        <v>0.7294464937109513</v>
+      </c>
+      <c r="D737">
+        <v>0.6553548848180032</v>
+      </c>
+      <c r="E737">
+        <v>0.6925412885538726</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5">
+      <c r="A738" s="1">
+        <v>736</v>
+      </c>
+      <c r="B738">
+        <v>0.6148050871310391</v>
+      </c>
+      <c r="C738">
+        <v>0.7288359990699496</v>
+      </c>
+      <c r="D738">
+        <v>0.662149395467228</v>
+      </c>
+      <c r="E738">
+        <v>0.701991042145969</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5">
+      <c r="A739" s="1">
+        <v>737</v>
+      </c>
+      <c r="B739">
+        <v>0.6090118577075099</v>
+      </c>
+      <c r="C739">
+        <v>0.7305928853754939</v>
+      </c>
+      <c r="D739">
+        <v>0.6463570487483531</v>
+      </c>
+      <c r="E739">
+        <v>0.6961528326745717</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5">
+      <c r="A740" s="1">
+        <v>738</v>
+      </c>
+      <c r="B740">
+        <v>0.6144766971912132</v>
+      </c>
+      <c r="C740">
+        <v>0.723071221564919</v>
+      </c>
+      <c r="D740">
+        <v>0.6547511035103858</v>
+      </c>
+      <c r="E740">
+        <v>0.6996075475370419</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5">
+      <c r="A741" s="1">
+        <v>739</v>
+      </c>
+      <c r="B741">
+        <v>0.6172591007672396</v>
+      </c>
+      <c r="C741">
+        <v>0.7336060356956849</v>
+      </c>
+      <c r="D741">
+        <v>0.6493860431581975</v>
+      </c>
+      <c r="E741">
+        <v>0.7003599593448535</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5">
+      <c r="A742" s="1">
+        <v>740</v>
+      </c>
+      <c r="B742">
+        <v>0.6158450237181672</v>
+      </c>
+      <c r="C742">
+        <v>0.7349673807741451</v>
+      </c>
+      <c r="D742">
+        <v>0.651739484170339</v>
+      </c>
+      <c r="E742">
+        <v>0.6975736400101028</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5">
+      <c r="A743" s="1">
+        <v>741</v>
+      </c>
+      <c r="B743">
+        <v>0.6173581137447354</v>
+      </c>
+      <c r="C743">
+        <v>0.7421903533961505</v>
+      </c>
+      <c r="D743">
+        <v>0.6720961797935322</v>
+      </c>
+      <c r="E743">
+        <v>0.7134071037283902</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5">
+      <c r="A744" s="1">
+        <v>742</v>
+      </c>
+      <c r="B744">
+        <v>0.6167184604237439</v>
+      </c>
+      <c r="C744">
+        <v>0.7364133778996311</v>
+      </c>
+      <c r="D744">
+        <v>0.6638806358707723</v>
+      </c>
+      <c r="E744">
+        <v>0.7083975976435204</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5">
+      <c r="A745" s="1">
+        <v>743</v>
+      </c>
+      <c r="B745">
+        <v>0.6105359603844186</v>
+      </c>
+      <c r="C745">
+        <v>0.7289035031109217</v>
+      </c>
+      <c r="D745">
+        <v>0.6587857207537889</v>
+      </c>
+      <c r="E745">
+        <v>0.7002736089551099</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5">
+      <c r="A746" s="1">
+        <v>744</v>
+      </c>
+      <c r="B746">
+        <v>0.6159859713410631</v>
+      </c>
+      <c r="C746">
+        <v>0.727514617847696</v>
+      </c>
+      <c r="D746">
+        <v>0.6607704078081184</v>
+      </c>
+      <c r="E746">
+        <v>0.6983991840854398</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5">
+      <c r="A747" s="1">
+        <v>745</v>
+      </c>
+      <c r="B747">
+        <v>0.6204942383084346</v>
+      </c>
+      <c r="C747">
+        <v>0.7287681400010826</v>
+      </c>
+      <c r="D747">
+        <v>0.6560875567373419</v>
+      </c>
+      <c r="E747">
+        <v>0.703087908083573</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5">
+      <c r="A748" s="1">
+        <v>746</v>
+      </c>
+      <c r="B748">
+        <v>0.6082438216267038</v>
+      </c>
+      <c r="C748">
+        <v>0.724559708544938</v>
+      </c>
+      <c r="D748">
+        <v>0.6598933578906295</v>
+      </c>
+      <c r="E748">
+        <v>0.6931800432164992</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5">
+      <c r="A749" s="1">
+        <v>747</v>
+      </c>
+      <c r="B749">
+        <v>0.6193322471509498</v>
+      </c>
+      <c r="C749">
+        <v>0.7292165350814238</v>
+      </c>
+      <c r="D749">
+        <v>0.6581422892467701</v>
+      </c>
+      <c r="E749">
+        <v>0.6944541098431989</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5">
+      <c r="A750" s="1">
+        <v>748</v>
+      </c>
+      <c r="B750">
+        <v>0.6137624200681533</v>
+      </c>
+      <c r="C750">
+        <v>0.7340086356725445</v>
+      </c>
+      <c r="D750">
+        <v>0.6439775849003554</v>
+      </c>
+      <c r="E750">
+        <v>0.7032294584421799</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5">
+      <c r="A751" s="1">
+        <v>749</v>
+      </c>
+      <c r="B751">
+        <v>0.61283493186496</v>
+      </c>
+      <c r="C751">
+        <v>0.7294240965139575</v>
+      </c>
+      <c r="D751">
+        <v>0.6480775250630266</v>
+      </c>
+      <c r="E751">
+        <v>0.6961700056029025</v>
       </c>
     </row>
   </sheetData>
